--- a/SparseGridCollocation/GenerateCudaTestCode.xlsx
+++ b/SparseGridCollocation/GenerateCudaTestCode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Source\Repos\SparseGridCollocation2\SparseGridCollocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Source\Repos\SparseGridCollocation4\SparseGridCollocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22785,7 +22784,7 @@
     </row>
     <row r="137" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" ref="A137:A168" si="9">IF(A33&lt;&gt;A85,1,0)</f>
+        <f t="shared" ref="A137:A155" si="9">IF(A33&lt;&gt;A85,1,0)</f>
         <v>1</v>
       </c>
       <c r="B137">
@@ -37210,22 +37209,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B875B525-5D66-4742-AEC0-C579B8ABAACC}">
-  <dimension ref="B1:G195"/>
+  <dimension ref="B1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H195" sqref="H1:H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="str">
-        <f>_xlfn.CONCAT("TX1(",C1,",0","') = ",E1,";")</f>
-        <v>TX1(0,0') = 0;</v>
+        <f>_xlfn.CONCAT("TX1(",C1,",0",") = ",E1,";")</f>
+        <v>TX1(0,0) = 0;</v>
       </c>
       <c r="C1">
         <f>0</f>
@@ -37241,15 +37240,15 @@
       <c r="F1">
         <v>0</v>
       </c>
-      <c r="G1" t="str">
-        <f>_xlfn.CONCAT("TX1(",C1,",1","') = ",F1,";")</f>
-        <v>TX1(0,1') = 0;</v>
+      <c r="H1" t="str">
+        <f>_xlfn.CONCAT("TX1(",C1,",1",") = ",F1,";")</f>
+        <v>TX1(0,1) = 0;</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("TX1(",C2,",0","') = ",E2,";")</f>
-        <v>TX1(1,0') = 0;</v>
+        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("TX1(",C2,",0",") = ",E2,";")</f>
+        <v>TX1(1,0) = 0;</v>
       </c>
       <c r="C2">
         <f>C1+1</f>
@@ -37265,15 +37264,15 @@
       <c r="F2">
         <v>4.6875</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="1">_xlfn.CONCAT("TX1(",C2,",1","') = ",F2,";")</f>
-        <v>TX1(1,1') = 4.6875;</v>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H65" si="1">_xlfn.CONCAT("TX1(",C2,",1",") = ",F2,";")</f>
+        <v>TX1(1,1) = 4.6875;</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(2,0') = 0;</v>
+        <v>TX1(2,0) = 0;</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="2">C2+1</f>
@@ -37289,15 +37288,15 @@
       <c r="F3">
         <v>9.375</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(2,1') = 9.375;</v>
+        <v>TX1(2,1) = 9.375;</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(3,0') = 0;</v>
+        <v>TX1(3,0) = 0;</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
@@ -37313,15 +37312,15 @@
       <c r="F4">
         <v>14.0625</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(3,1') = 14.0625;</v>
+        <v>TX1(3,1) = 14.0625;</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(4,0') = 0;</v>
+        <v>TX1(4,0) = 0;</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
@@ -37337,15 +37336,15 @@
       <c r="F5">
         <v>18.75</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(4,1') = 18.75;</v>
+        <v>TX1(4,1) = 18.75;</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(5,0') = 0;</v>
+        <v>TX1(5,0) = 0;</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -37361,15 +37360,15 @@
       <c r="F6">
         <v>23.4375</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(5,1') = 23.4375;</v>
+        <v>TX1(5,1) = 23.4375;</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(6,0') = 0;</v>
+        <v>TX1(6,0) = 0;</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -37385,15 +37384,15 @@
       <c r="F7">
         <v>28.125</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(6,1') = 28.125;</v>
+        <v>TX1(6,1) = 28.125;</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(7,0') = 0;</v>
+        <v>TX1(7,0) = 0;</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -37409,15 +37408,15 @@
       <c r="F8">
         <v>32.8125</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(7,1') = 32.8125;</v>
+        <v>TX1(7,1) = 32.8125;</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(8,0') = 0;</v>
+        <v>TX1(8,0) = 0;</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -37433,15 +37432,15 @@
       <c r="F9">
         <v>37.5</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(8,1') = 37.5;</v>
+        <v>TX1(8,1) = 37.5;</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(9,0') = 0;</v>
+        <v>TX1(9,0) = 0;</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -37457,15 +37456,15 @@
       <c r="F10">
         <v>42.1875</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(9,1') = 42.1875;</v>
+        <v>TX1(9,1) = 42.1875;</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(10,0') = 0;</v>
+        <v>TX1(10,0) = 0;</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
@@ -37481,15 +37480,15 @@
       <c r="F11">
         <v>46.875</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(10,1') = 46.875;</v>
+        <v>TX1(10,1) = 46.875;</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(11,0') = 0;</v>
+        <v>TX1(11,0) = 0;</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
@@ -37505,15 +37504,15 @@
       <c r="F12">
         <v>51.5625</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(11,1') = 51.5625;</v>
+        <v>TX1(11,1) = 51.5625;</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(12,0') = 0;</v>
+        <v>TX1(12,0) = 0;</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
@@ -37529,15 +37528,15 @@
       <c r="F13">
         <v>56.25</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(12,1') = 56.25;</v>
+        <v>TX1(12,1) = 56.25;</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(13,0') = 0;</v>
+        <v>TX1(13,0) = 0;</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
@@ -37553,15 +37552,15 @@
       <c r="F14">
         <v>60.9375</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(13,1') = 60.9375;</v>
+        <v>TX1(13,1) = 60.9375;</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(14,0') = 0;</v>
+        <v>TX1(14,0) = 0;</v>
       </c>
       <c r="C15">
         <f t="shared" si="2"/>
@@ -37577,15 +37576,15 @@
       <c r="F15">
         <v>65.625</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(14,1') = 65.625;</v>
+        <v>TX1(14,1) = 65.625;</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(15,0') = 0;</v>
+        <v>TX1(15,0) = 0;</v>
       </c>
       <c r="C16">
         <f t="shared" si="2"/>
@@ -37601,15 +37600,15 @@
       <c r="F16">
         <v>70.3125</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(15,1') = 70.3125;</v>
+        <v>TX1(15,1) = 70.3125;</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(16,0') = 0;</v>
+        <v>TX1(16,0) = 0;</v>
       </c>
       <c r="C17">
         <f t="shared" si="2"/>
@@ -37625,15 +37624,15 @@
       <c r="F17">
         <v>75</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(16,1') = 75;</v>
+        <v>TX1(16,1) = 75;</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(17,0') = 0;</v>
+        <v>TX1(17,0) = 0;</v>
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
@@ -37649,15 +37648,15 @@
       <c r="F18">
         <v>79.6875</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(17,1') = 79.6875;</v>
+        <v>TX1(17,1) = 79.6875;</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(18,0') = 0;</v>
+        <v>TX1(18,0) = 0;</v>
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
@@ -37673,15 +37672,15 @@
       <c r="F19">
         <v>84.375</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(18,1') = 84.375;</v>
+        <v>TX1(18,1) = 84.375;</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(19,0') = 0;</v>
+        <v>TX1(19,0) = 0;</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
@@ -37697,15 +37696,15 @@
       <c r="F20">
         <v>89.0625</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(19,1') = 89.0625;</v>
+        <v>TX1(19,1) = 89.0625;</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(20,0') = 0;</v>
+        <v>TX1(20,0) = 0;</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
@@ -37721,15 +37720,15 @@
       <c r="F21">
         <v>93.75</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(20,1') = 93.75;</v>
+        <v>TX1(20,1) = 93.75;</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(21,0') = 0;</v>
+        <v>TX1(21,0) = 0;</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
@@ -37745,15 +37744,15 @@
       <c r="F22">
         <v>98.4375</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(21,1') = 98.4375;</v>
+        <v>TX1(21,1) = 98.4375;</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(22,0') = 0;</v>
+        <v>TX1(22,0) = 0;</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
@@ -37769,15 +37768,15 @@
       <c r="F23">
         <v>103.125</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(22,1') = 103.125;</v>
+        <v>TX1(22,1) = 103.125;</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(23,0') = 0;</v>
+        <v>TX1(23,0) = 0;</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
@@ -37793,15 +37792,15 @@
       <c r="F24">
         <v>107.8125</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(23,1') = 107.8125;</v>
+        <v>TX1(23,1) = 107.8125;</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(24,0') = 0;</v>
+        <v>TX1(24,0) = 0;</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
@@ -37817,15 +37816,15 @@
       <c r="F25">
         <v>112.5</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(24,1') = 112.5;</v>
+        <v>TX1(24,1) = 112.5;</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(25,0') = 0;</v>
+        <v>TX1(25,0) = 0;</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
@@ -37841,15 +37840,15 @@
       <c r="F26">
         <v>117.1875</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(25,1') = 117.1875;</v>
+        <v>TX1(25,1) = 117.1875;</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(26,0') = 0;</v>
+        <v>TX1(26,0) = 0;</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
@@ -37865,15 +37864,15 @@
       <c r="F27">
         <v>121.875</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(26,1') = 121.875;</v>
+        <v>TX1(26,1) = 121.875;</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(27,0') = 0;</v>
+        <v>TX1(27,0) = 0;</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
@@ -37889,15 +37888,15 @@
       <c r="F28">
         <v>126.5625</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(27,1') = 126.5625;</v>
+        <v>TX1(27,1) = 126.5625;</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(28,0') = 0;</v>
+        <v>TX1(28,0) = 0;</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
@@ -37913,15 +37912,15 @@
       <c r="F29">
         <v>131.25</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(28,1') = 131.25;</v>
+        <v>TX1(28,1) = 131.25;</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(29,0') = 0;</v>
+        <v>TX1(29,0) = 0;</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
@@ -37937,15 +37936,15 @@
       <c r="F30">
         <v>135.9375</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(29,1') = 135.9375;</v>
+        <v>TX1(29,1) = 135.9375;</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(30,0') = 0;</v>
+        <v>TX1(30,0) = 0;</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
@@ -37961,15 +37960,15 @@
       <c r="F31">
         <v>140.625</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(30,1') = 140.625;</v>
+        <v>TX1(30,1) = 140.625;</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(31,0') = 0;</v>
+        <v>TX1(31,0) = 0;</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
@@ -37985,15 +37984,15 @@
       <c r="F32">
         <v>145.3125</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(31,1') = 145.3125;</v>
+        <v>TX1(31,1) = 145.3125;</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(32,0') = 0;</v>
+        <v>TX1(32,0) = 0;</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
@@ -38009,15 +38008,15 @@
       <c r="F33">
         <v>150</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(32,1') = 150;</v>
+        <v>TX1(32,1) = 150;</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(33,0') = 0;</v>
+        <v>TX1(33,0) = 0;</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
@@ -38033,15 +38032,15 @@
       <c r="F34">
         <v>154.6875</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(33,1') = 154.6875;</v>
+        <v>TX1(33,1) = 154.6875;</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(34,0') = 0;</v>
+        <v>TX1(34,0) = 0;</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
@@ -38057,15 +38056,15 @@
       <c r="F35">
         <v>159.375</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(34,1') = 159.375;</v>
+        <v>TX1(34,1) = 159.375;</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(35,0') = 0;</v>
+        <v>TX1(35,0) = 0;</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
@@ -38081,15 +38080,15 @@
       <c r="F36">
         <v>164.0625</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(35,1') = 164.0625;</v>
+        <v>TX1(35,1) = 164.0625;</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(36,0') = 0;</v>
+        <v>TX1(36,0) = 0;</v>
       </c>
       <c r="C37">
         <f t="shared" si="2"/>
@@ -38105,15 +38104,15 @@
       <c r="F37">
         <v>168.75</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(36,1') = 168.75;</v>
+        <v>TX1(36,1) = 168.75;</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(37,0') = 0;</v>
+        <v>TX1(37,0) = 0;</v>
       </c>
       <c r="C38">
         <f t="shared" si="2"/>
@@ -38129,15 +38128,15 @@
       <c r="F38">
         <v>173.4375</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(37,1') = 173.4375;</v>
+        <v>TX1(37,1) = 173.4375;</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(38,0') = 0;</v>
+        <v>TX1(38,0) = 0;</v>
       </c>
       <c r="C39">
         <f t="shared" si="2"/>
@@ -38153,15 +38152,15 @@
       <c r="F39">
         <v>178.125</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(38,1') = 178.125;</v>
+        <v>TX1(38,1) = 178.125;</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(39,0') = 0;</v>
+        <v>TX1(39,0) = 0;</v>
       </c>
       <c r="C40">
         <f t="shared" si="2"/>
@@ -38177,15 +38176,15 @@
       <c r="F40">
         <v>182.8125</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(39,1') = 182.8125;</v>
+        <v>TX1(39,1) = 182.8125;</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(40,0') = 0;</v>
+        <v>TX1(40,0) = 0;</v>
       </c>
       <c r="C41">
         <f t="shared" si="2"/>
@@ -38201,15 +38200,15 @@
       <c r="F41">
         <v>187.5</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(40,1') = 187.5;</v>
+        <v>TX1(40,1) = 187.5;</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(41,0') = 0;</v>
+        <v>TX1(41,0) = 0;</v>
       </c>
       <c r="C42">
         <f t="shared" si="2"/>
@@ -38225,15 +38224,15 @@
       <c r="F42">
         <v>192.1875</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(41,1') = 192.1875;</v>
+        <v>TX1(41,1) = 192.1875;</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(42,0') = 0;</v>
+        <v>TX1(42,0) = 0;</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
@@ -38249,15 +38248,15 @@
       <c r="F43">
         <v>196.875</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(42,1') = 196.875;</v>
+        <v>TX1(42,1) = 196.875;</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(43,0') = 0;</v>
+        <v>TX1(43,0) = 0;</v>
       </c>
       <c r="C44">
         <f t="shared" si="2"/>
@@ -38273,15 +38272,15 @@
       <c r="F44">
         <v>201.5625</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(43,1') = 201.5625;</v>
+        <v>TX1(43,1) = 201.5625;</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(44,0') = 0;</v>
+        <v>TX1(44,0) = 0;</v>
       </c>
       <c r="C45">
         <f t="shared" si="2"/>
@@ -38297,15 +38296,15 @@
       <c r="F45">
         <v>206.25</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(44,1') = 206.25;</v>
+        <v>TX1(44,1) = 206.25;</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(45,0') = 0;</v>
+        <v>TX1(45,0) = 0;</v>
       </c>
       <c r="C46">
         <f t="shared" si="2"/>
@@ -38321,15 +38320,15 @@
       <c r="F46">
         <v>210.9375</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(45,1') = 210.9375;</v>
+        <v>TX1(45,1) = 210.9375;</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(46,0') = 0;</v>
+        <v>TX1(46,0) = 0;</v>
       </c>
       <c r="C47">
         <f t="shared" si="2"/>
@@ -38345,15 +38344,15 @@
       <c r="F47">
         <v>215.625</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(46,1') = 215.625;</v>
+        <v>TX1(46,1) = 215.625;</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(47,0') = 0;</v>
+        <v>TX1(47,0) = 0;</v>
       </c>
       <c r="C48">
         <f t="shared" si="2"/>
@@ -38369,15 +38368,15 @@
       <c r="F48">
         <v>220.3125</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(47,1') = 220.3125;</v>
+        <v>TX1(47,1) = 220.3125;</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(48,0') = 0;</v>
+        <v>TX1(48,0) = 0;</v>
       </c>
       <c r="C49">
         <f t="shared" si="2"/>
@@ -38393,15 +38392,15 @@
       <c r="F49">
         <v>225</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(48,1') = 225;</v>
+        <v>TX1(48,1) = 225;</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(49,0') = 0;</v>
+        <v>TX1(49,0) = 0;</v>
       </c>
       <c r="C50">
         <f t="shared" si="2"/>
@@ -38417,15 +38416,15 @@
       <c r="F50">
         <v>229.6875</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(49,1') = 229.6875;</v>
+        <v>TX1(49,1) = 229.6875;</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(50,0') = 0;</v>
+        <v>TX1(50,0) = 0;</v>
       </c>
       <c r="C51">
         <f t="shared" si="2"/>
@@ -38441,15 +38440,15 @@
       <c r="F51">
         <v>234.375</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(50,1') = 234.375;</v>
+        <v>TX1(50,1) = 234.375;</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(51,0') = 0;</v>
+        <v>TX1(51,0) = 0;</v>
       </c>
       <c r="C52">
         <f t="shared" si="2"/>
@@ -38465,15 +38464,15 @@
       <c r="F52">
         <v>239.0625</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(51,1') = 239.0625;</v>
+        <v>TX1(51,1) = 239.0625;</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(52,0') = 0;</v>
+        <v>TX1(52,0) = 0;</v>
       </c>
       <c r="C53">
         <f t="shared" si="2"/>
@@ -38489,15 +38488,15 @@
       <c r="F53">
         <v>243.75</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(52,1') = 243.75;</v>
+        <v>TX1(52,1) = 243.75;</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(53,0') = 0;</v>
+        <v>TX1(53,0) = 0;</v>
       </c>
       <c r="C54">
         <f t="shared" si="2"/>
@@ -38513,15 +38512,15 @@
       <c r="F54">
         <v>248.4375</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(53,1') = 248.4375;</v>
+        <v>TX1(53,1) = 248.4375;</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(54,0') = 0;</v>
+        <v>TX1(54,0) = 0;</v>
       </c>
       <c r="C55">
         <f t="shared" si="2"/>
@@ -38537,15 +38536,15 @@
       <c r="F55">
         <v>253.125</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(54,1') = 253.125;</v>
+        <v>TX1(54,1) = 253.125;</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(55,0') = 0;</v>
+        <v>TX1(55,0) = 0;</v>
       </c>
       <c r="C56">
         <f t="shared" si="2"/>
@@ -38561,15 +38560,15 @@
       <c r="F56">
         <v>257.8125</v>
       </c>
-      <c r="G56" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(55,1') = 257.8125;</v>
+        <v>TX1(55,1) = 257.8125;</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(56,0') = 0;</v>
+        <v>TX1(56,0) = 0;</v>
       </c>
       <c r="C57">
         <f t="shared" si="2"/>
@@ -38585,15 +38584,15 @@
       <c r="F57">
         <v>262.5</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(56,1') = 262.5;</v>
+        <v>TX1(56,1) = 262.5;</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(57,0') = 0;</v>
+        <v>TX1(57,0) = 0;</v>
       </c>
       <c r="C58">
         <f t="shared" si="2"/>
@@ -38609,15 +38608,15 @@
       <c r="F58">
         <v>267.1875</v>
       </c>
-      <c r="G58" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(57,1') = 267.1875;</v>
+        <v>TX1(57,1) = 267.1875;</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(58,0') = 0;</v>
+        <v>TX1(58,0) = 0;</v>
       </c>
       <c r="C59">
         <f t="shared" si="2"/>
@@ -38633,15 +38632,15 @@
       <c r="F59">
         <v>271.875</v>
       </c>
-      <c r="G59" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(58,1') = 271.875;</v>
+        <v>TX1(58,1) = 271.875;</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(59,0') = 0;</v>
+        <v>TX1(59,0) = 0;</v>
       </c>
       <c r="C60">
         <f t="shared" si="2"/>
@@ -38657,15 +38656,15 @@
       <c r="F60">
         <v>276.5625</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(59,1') = 276.5625;</v>
+        <v>TX1(59,1) = 276.5625;</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(60,0') = 0;</v>
+        <v>TX1(60,0) = 0;</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
@@ -38681,15 +38680,15 @@
       <c r="F61">
         <v>281.25</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(60,1') = 281.25;</v>
+        <v>TX1(60,1) = 281.25;</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(61,0') = 0;</v>
+        <v>TX1(61,0) = 0;</v>
       </c>
       <c r="C62">
         <f t="shared" si="2"/>
@@ -38705,15 +38704,15 @@
       <c r="F62">
         <v>285.9375</v>
       </c>
-      <c r="G62" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(61,1') = 285.9375;</v>
+        <v>TX1(61,1) = 285.9375;</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(62,0') = 0;</v>
+        <v>TX1(62,0) = 0;</v>
       </c>
       <c r="C63">
         <f t="shared" si="2"/>
@@ -38729,15 +38728,15 @@
       <c r="F63">
         <v>290.625</v>
       </c>
-      <c r="G63" t="str">
+      <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(62,1') = 290.625;</v>
+        <v>TX1(62,1) = 290.625;</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(63,0') = 0;</v>
+        <v>TX1(63,0) = 0;</v>
       </c>
       <c r="C64">
         <f t="shared" si="2"/>
@@ -38753,15 +38752,15 @@
       <c r="F64">
         <v>295.3125</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(63,1') = 295.3125;</v>
+        <v>TX1(63,1) = 295.3125;</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(64,0') = 0;</v>
+        <v>TX1(64,0) = 0;</v>
       </c>
       <c r="C65">
         <f t="shared" si="2"/>
@@ -38777,15 +38776,15 @@
       <c r="F65">
         <v>300</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(64,1') = 300;</v>
+        <v>TX1(64,1) = 300;</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="4">_xlfn.CONCAT("TX1(",C66,",0","') = ",E66,";")</f>
-        <v>TX1(65,0') = 0.432499999999999;</v>
+        <f t="shared" ref="B66:B129" si="4">_xlfn.CONCAT("TX1(",C66,",0",") = ",E66,";")</f>
+        <v>TX1(65,0) = 0.432499999999999;</v>
       </c>
       <c r="C66">
         <f t="shared" si="2"/>
@@ -38801,15 +38800,15 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" t="str">
-        <f t="shared" ref="G66:G129" si="5">_xlfn.CONCAT("TX1(",C66,",1","') = ",F66,";")</f>
-        <v>TX1(65,1') = 0;</v>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H129" si="5">_xlfn.CONCAT("TX1(",C66,",1",") = ",F66,";")</f>
+        <v>TX1(65,1) = 0;</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(66,0') = 0.432499999999999;</v>
+        <v>TX1(66,0) = 0.432499999999999;</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="6">C66+1</f>
@@ -38825,15 +38824,15 @@
       <c r="F67">
         <v>4.6875</v>
       </c>
-      <c r="G67" t="str">
+      <c r="H67" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(66,1') = 4.6875;</v>
+        <v>TX1(66,1) = 4.6875;</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(67,0') = 0.432499999999999;</v>
+        <v>TX1(67,0) = 0.432499999999999;</v>
       </c>
       <c r="C68">
         <f t="shared" si="6"/>
@@ -38849,15 +38848,15 @@
       <c r="F68">
         <v>9.375</v>
       </c>
-      <c r="G68" t="str">
+      <c r="H68" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(67,1') = 9.375;</v>
+        <v>TX1(67,1) = 9.375;</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(68,0') = 0.432499999999999;</v>
+        <v>TX1(68,0) = 0.432499999999999;</v>
       </c>
       <c r="C69">
         <f t="shared" si="6"/>
@@ -38873,15 +38872,15 @@
       <c r="F69">
         <v>14.0625</v>
       </c>
-      <c r="G69" t="str">
+      <c r="H69" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(68,1') = 14.0625;</v>
+        <v>TX1(68,1) = 14.0625;</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(69,0') = 0.432499999999999;</v>
+        <v>TX1(69,0) = 0.432499999999999;</v>
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
@@ -38897,15 +38896,15 @@
       <c r="F70">
         <v>18.75</v>
       </c>
-      <c r="G70" t="str">
+      <c r="H70" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(69,1') = 18.75;</v>
+        <v>TX1(69,1) = 18.75;</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(70,0') = 0.432499999999999;</v>
+        <v>TX1(70,0) = 0.432499999999999;</v>
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
@@ -38921,15 +38920,15 @@
       <c r="F71">
         <v>23.4375</v>
       </c>
-      <c r="G71" t="str">
+      <c r="H71" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(70,1') = 23.4375;</v>
+        <v>TX1(70,1) = 23.4375;</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(71,0') = 0.432499999999999;</v>
+        <v>TX1(71,0) = 0.432499999999999;</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
@@ -38945,15 +38944,15 @@
       <c r="F72">
         <v>28.125</v>
       </c>
-      <c r="G72" t="str">
+      <c r="H72" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(71,1') = 28.125;</v>
+        <v>TX1(71,1) = 28.125;</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(72,0') = 0.432499999999999;</v>
+        <v>TX1(72,0) = 0.432499999999999;</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
@@ -38969,15 +38968,15 @@
       <c r="F73">
         <v>32.8125</v>
       </c>
-      <c r="G73" t="str">
+      <c r="H73" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(72,1') = 32.8125;</v>
+        <v>TX1(72,1) = 32.8125;</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(73,0') = 0.432499999999999;</v>
+        <v>TX1(73,0) = 0.432499999999999;</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
@@ -38993,15 +38992,15 @@
       <c r="F74">
         <v>37.5</v>
       </c>
-      <c r="G74" t="str">
+      <c r="H74" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(73,1') = 37.5;</v>
+        <v>TX1(73,1) = 37.5;</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(74,0') = 0.432499999999999;</v>
+        <v>TX1(74,0) = 0.432499999999999;</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
@@ -39017,15 +39016,15 @@
       <c r="F75">
         <v>42.1875</v>
       </c>
-      <c r="G75" t="str">
+      <c r="H75" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(74,1') = 42.1875;</v>
+        <v>TX1(74,1) = 42.1875;</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(75,0') = 0.432499999999999;</v>
+        <v>TX1(75,0) = 0.432499999999999;</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
@@ -39041,15 +39040,15 @@
       <c r="F76">
         <v>46.875</v>
       </c>
-      <c r="G76" t="str">
+      <c r="H76" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(75,1') = 46.875;</v>
+        <v>TX1(75,1) = 46.875;</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(76,0') = 0.432499999999999;</v>
+        <v>TX1(76,0) = 0.432499999999999;</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
@@ -39065,15 +39064,15 @@
       <c r="F77">
         <v>51.5625</v>
       </c>
-      <c r="G77" t="str">
+      <c r="H77" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(76,1') = 51.5625;</v>
+        <v>TX1(76,1) = 51.5625;</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(77,0') = 0.432499999999999;</v>
+        <v>TX1(77,0) = 0.432499999999999;</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
@@ -39089,15 +39088,15 @@
       <c r="F78">
         <v>56.25</v>
       </c>
-      <c r="G78" t="str">
+      <c r="H78" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(77,1') = 56.25;</v>
+        <v>TX1(77,1) = 56.25;</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(78,0') = 0.432499999999999;</v>
+        <v>TX1(78,0) = 0.432499999999999;</v>
       </c>
       <c r="C79">
         <f t="shared" si="6"/>
@@ -39113,15 +39112,15 @@
       <c r="F79">
         <v>60.9375</v>
       </c>
-      <c r="G79" t="str">
+      <c r="H79" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(78,1') = 60.9375;</v>
+        <v>TX1(78,1) = 60.9375;</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(79,0') = 0.432499999999999;</v>
+        <v>TX1(79,0) = 0.432499999999999;</v>
       </c>
       <c r="C80">
         <f t="shared" si="6"/>
@@ -39137,15 +39136,15 @@
       <c r="F80">
         <v>65.625</v>
       </c>
-      <c r="G80" t="str">
+      <c r="H80" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(79,1') = 65.625;</v>
+        <v>TX1(79,1) = 65.625;</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(80,0') = 0.432499999999999;</v>
+        <v>TX1(80,0) = 0.432499999999999;</v>
       </c>
       <c r="C81">
         <f t="shared" si="6"/>
@@ -39161,15 +39160,15 @@
       <c r="F81">
         <v>70.3125</v>
       </c>
-      <c r="G81" t="str">
+      <c r="H81" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(80,1') = 70.3125;</v>
+        <v>TX1(80,1) = 70.3125;</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(81,0') = 0.432499999999999;</v>
+        <v>TX1(81,0) = 0.432499999999999;</v>
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
@@ -39185,15 +39184,15 @@
       <c r="F82">
         <v>75</v>
       </c>
-      <c r="G82" t="str">
+      <c r="H82" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(81,1') = 75;</v>
+        <v>TX1(81,1) = 75;</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(82,0') = 0.432499999999999;</v>
+        <v>TX1(82,0) = 0.432499999999999;</v>
       </c>
       <c r="C83">
         <f t="shared" si="6"/>
@@ -39209,15 +39208,15 @@
       <c r="F83">
         <v>79.6875</v>
       </c>
-      <c r="G83" t="str">
+      <c r="H83" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(82,1') = 79.6875;</v>
+        <v>TX1(82,1) = 79.6875;</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(83,0') = 0.432499999999999;</v>
+        <v>TX1(83,0) = 0.432499999999999;</v>
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
@@ -39233,15 +39232,15 @@
       <c r="F84">
         <v>84.375</v>
       </c>
-      <c r="G84" t="str">
+      <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(83,1') = 84.375;</v>
+        <v>TX1(83,1) = 84.375;</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(84,0') = 0.432499999999999;</v>
+        <v>TX1(84,0) = 0.432499999999999;</v>
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
@@ -39257,15 +39256,15 @@
       <c r="F85">
         <v>89.0625</v>
       </c>
-      <c r="G85" t="str">
+      <c r="H85" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(84,1') = 89.0625;</v>
+        <v>TX1(84,1) = 89.0625;</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(85,0') = 0.432499999999999;</v>
+        <v>TX1(85,0) = 0.432499999999999;</v>
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
@@ -39281,15 +39280,15 @@
       <c r="F86">
         <v>93.75</v>
       </c>
-      <c r="G86" t="str">
+      <c r="H86" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(85,1') = 93.75;</v>
+        <v>TX1(85,1) = 93.75;</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(86,0') = 0.432499999999999;</v>
+        <v>TX1(86,0) = 0.432499999999999;</v>
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
@@ -39305,15 +39304,15 @@
       <c r="F87">
         <v>98.4375</v>
       </c>
-      <c r="G87" t="str">
+      <c r="H87" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(86,1') = 98.4375;</v>
+        <v>TX1(86,1) = 98.4375;</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(87,0') = 0.432499999999999;</v>
+        <v>TX1(87,0) = 0.432499999999999;</v>
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
@@ -39329,15 +39328,15 @@
       <c r="F88">
         <v>103.125</v>
       </c>
-      <c r="G88" t="str">
+      <c r="H88" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(87,1') = 103.125;</v>
+        <v>TX1(87,1) = 103.125;</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(88,0') = 0.432499999999999;</v>
+        <v>TX1(88,0) = 0.432499999999999;</v>
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
@@ -39353,15 +39352,15 @@
       <c r="F89">
         <v>107.8125</v>
       </c>
-      <c r="G89" t="str">
+      <c r="H89" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(88,1') = 107.8125;</v>
+        <v>TX1(88,1) = 107.8125;</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(89,0') = 0.432499999999999;</v>
+        <v>TX1(89,0) = 0.432499999999999;</v>
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
@@ -39377,15 +39376,15 @@
       <c r="F90">
         <v>112.5</v>
       </c>
-      <c r="G90" t="str">
+      <c r="H90" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(89,1') = 112.5;</v>
+        <v>TX1(89,1) = 112.5;</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(90,0') = 0.432499999999999;</v>
+        <v>TX1(90,0) = 0.432499999999999;</v>
       </c>
       <c r="C91">
         <f t="shared" si="6"/>
@@ -39401,15 +39400,15 @@
       <c r="F91">
         <v>117.1875</v>
       </c>
-      <c r="G91" t="str">
+      <c r="H91" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(90,1') = 117.1875;</v>
+        <v>TX1(90,1) = 117.1875;</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(91,0') = 0.432499999999999;</v>
+        <v>TX1(91,0) = 0.432499999999999;</v>
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
@@ -39425,15 +39424,15 @@
       <c r="F92">
         <v>121.875</v>
       </c>
-      <c r="G92" t="str">
+      <c r="H92" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(91,1') = 121.875;</v>
+        <v>TX1(91,1) = 121.875;</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(92,0') = 0.432499999999999;</v>
+        <v>TX1(92,0) = 0.432499999999999;</v>
       </c>
       <c r="C93">
         <f t="shared" si="6"/>
@@ -39449,15 +39448,15 @@
       <c r="F93">
         <v>126.5625</v>
       </c>
-      <c r="G93" t="str">
+      <c r="H93" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(92,1') = 126.5625;</v>
+        <v>TX1(92,1) = 126.5625;</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(93,0') = 0.432499999999999;</v>
+        <v>TX1(93,0) = 0.432499999999999;</v>
       </c>
       <c r="C94">
         <f t="shared" si="6"/>
@@ -39473,15 +39472,15 @@
       <c r="F94">
         <v>131.25</v>
       </c>
-      <c r="G94" t="str">
+      <c r="H94" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(93,1') = 131.25;</v>
+        <v>TX1(93,1) = 131.25;</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(94,0') = 0.432499999999999;</v>
+        <v>TX1(94,0) = 0.432499999999999;</v>
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
@@ -39497,15 +39496,15 @@
       <c r="F95">
         <v>135.9375</v>
       </c>
-      <c r="G95" t="str">
+      <c r="H95" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(94,1') = 135.9375;</v>
+        <v>TX1(94,1) = 135.9375;</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(95,0') = 0.432499999999999;</v>
+        <v>TX1(95,0) = 0.432499999999999;</v>
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
@@ -39521,15 +39520,15 @@
       <c r="F96">
         <v>140.625</v>
       </c>
-      <c r="G96" t="str">
+      <c r="H96" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(95,1') = 140.625;</v>
+        <v>TX1(95,1) = 140.625;</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(96,0') = 0.432499999999999;</v>
+        <v>TX1(96,0) = 0.432499999999999;</v>
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
@@ -39545,15 +39544,15 @@
       <c r="F97">
         <v>145.3125</v>
       </c>
-      <c r="G97" t="str">
+      <c r="H97" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(96,1') = 145.3125;</v>
+        <v>TX1(96,1) = 145.3125;</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(97,0') = 0.432499999999999;</v>
+        <v>TX1(97,0) = 0.432499999999999;</v>
       </c>
       <c r="C98">
         <f t="shared" si="6"/>
@@ -39569,15 +39568,15 @@
       <c r="F98">
         <v>150</v>
       </c>
-      <c r="G98" t="str">
+      <c r="H98" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(97,1') = 150;</v>
+        <v>TX1(97,1) = 150;</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(98,0') = 0.432499999999999;</v>
+        <v>TX1(98,0) = 0.432499999999999;</v>
       </c>
       <c r="C99">
         <f t="shared" si="6"/>
@@ -39593,15 +39592,15 @@
       <c r="F99">
         <v>154.6875</v>
       </c>
-      <c r="G99" t="str">
+      <c r="H99" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(98,1') = 154.6875;</v>
+        <v>TX1(98,1) = 154.6875;</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(99,0') = 0.432499999999999;</v>
+        <v>TX1(99,0) = 0.432499999999999;</v>
       </c>
       <c r="C100">
         <f t="shared" si="6"/>
@@ -39617,15 +39616,15 @@
       <c r="F100">
         <v>159.375</v>
       </c>
-      <c r="G100" t="str">
+      <c r="H100" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(99,1') = 159.375;</v>
+        <v>TX1(99,1) = 159.375;</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(100,0') = 0.432499999999999;</v>
+        <v>TX1(100,0) = 0.432499999999999;</v>
       </c>
       <c r="C101">
         <f t="shared" si="6"/>
@@ -39641,15 +39640,15 @@
       <c r="F101">
         <v>164.0625</v>
       </c>
-      <c r="G101" t="str">
+      <c r="H101" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(100,1') = 164.0625;</v>
+        <v>TX1(100,1) = 164.0625;</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(101,0') = 0.432499999999999;</v>
+        <v>TX1(101,0) = 0.432499999999999;</v>
       </c>
       <c r="C102">
         <f t="shared" si="6"/>
@@ -39665,15 +39664,15 @@
       <c r="F102">
         <v>168.75</v>
       </c>
-      <c r="G102" t="str">
+      <c r="H102" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(101,1') = 168.75;</v>
+        <v>TX1(101,1) = 168.75;</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(102,0') = 0.432499999999999;</v>
+        <v>TX1(102,0) = 0.432499999999999;</v>
       </c>
       <c r="C103">
         <f t="shared" si="6"/>
@@ -39689,15 +39688,15 @@
       <c r="F103">
         <v>173.4375</v>
       </c>
-      <c r="G103" t="str">
+      <c r="H103" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(102,1') = 173.4375;</v>
+        <v>TX1(102,1) = 173.4375;</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(103,0') = 0.432499999999999;</v>
+        <v>TX1(103,0) = 0.432499999999999;</v>
       </c>
       <c r="C104">
         <f t="shared" si="6"/>
@@ -39713,15 +39712,15 @@
       <c r="F104">
         <v>178.125</v>
       </c>
-      <c r="G104" t="str">
+      <c r="H104" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(103,1') = 178.125;</v>
+        <v>TX1(103,1) = 178.125;</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(104,0') = 0.432499999999999;</v>
+        <v>TX1(104,0) = 0.432499999999999;</v>
       </c>
       <c r="C105">
         <f t="shared" si="6"/>
@@ -39737,15 +39736,15 @@
       <c r="F105">
         <v>182.8125</v>
       </c>
-      <c r="G105" t="str">
+      <c r="H105" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(104,1') = 182.8125;</v>
+        <v>TX1(104,1) = 182.8125;</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(105,0') = 0.432499999999999;</v>
+        <v>TX1(105,0) = 0.432499999999999;</v>
       </c>
       <c r="C106">
         <f t="shared" si="6"/>
@@ -39761,15 +39760,15 @@
       <c r="F106">
         <v>187.5</v>
       </c>
-      <c r="G106" t="str">
+      <c r="H106" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(105,1') = 187.5;</v>
+        <v>TX1(105,1) = 187.5;</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(106,0') = 0.432499999999999;</v>
+        <v>TX1(106,0) = 0.432499999999999;</v>
       </c>
       <c r="C107">
         <f t="shared" si="6"/>
@@ -39785,15 +39784,15 @@
       <c r="F107">
         <v>192.1875</v>
       </c>
-      <c r="G107" t="str">
+      <c r="H107" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(106,1') = 192.1875;</v>
+        <v>TX1(106,1) = 192.1875;</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(107,0') = 0.432499999999999;</v>
+        <v>TX1(107,0) = 0.432499999999999;</v>
       </c>
       <c r="C108">
         <f t="shared" si="6"/>
@@ -39809,15 +39808,15 @@
       <c r="F108">
         <v>196.875</v>
       </c>
-      <c r="G108" t="str">
+      <c r="H108" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(107,1') = 196.875;</v>
+        <v>TX1(107,1) = 196.875;</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(108,0') = 0.432499999999999;</v>
+        <v>TX1(108,0) = 0.432499999999999;</v>
       </c>
       <c r="C109">
         <f t="shared" si="6"/>
@@ -39833,15 +39832,15 @@
       <c r="F109">
         <v>201.5625</v>
       </c>
-      <c r="G109" t="str">
+      <c r="H109" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(108,1') = 201.5625;</v>
+        <v>TX1(108,1) = 201.5625;</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(109,0') = 0.432499999999999;</v>
+        <v>TX1(109,0) = 0.432499999999999;</v>
       </c>
       <c r="C110">
         <f t="shared" si="6"/>
@@ -39857,15 +39856,15 @@
       <c r="F110">
         <v>206.25</v>
       </c>
-      <c r="G110" t="str">
+      <c r="H110" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(109,1') = 206.25;</v>
+        <v>TX1(109,1) = 206.25;</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(110,0') = 0.432499999999999;</v>
+        <v>TX1(110,0) = 0.432499999999999;</v>
       </c>
       <c r="C111">
         <f t="shared" si="6"/>
@@ -39881,15 +39880,15 @@
       <c r="F111">
         <v>210.9375</v>
       </c>
-      <c r="G111" t="str">
+      <c r="H111" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(110,1') = 210.9375;</v>
+        <v>TX1(110,1) = 210.9375;</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(111,0') = 0.432499999999999;</v>
+        <v>TX1(111,0) = 0.432499999999999;</v>
       </c>
       <c r="C112">
         <f t="shared" si="6"/>
@@ -39905,15 +39904,15 @@
       <c r="F112">
         <v>215.625</v>
       </c>
-      <c r="G112" t="str">
+      <c r="H112" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(111,1') = 215.625;</v>
+        <v>TX1(111,1) = 215.625;</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(112,0') = 0.432499999999999;</v>
+        <v>TX1(112,0) = 0.432499999999999;</v>
       </c>
       <c r="C113">
         <f t="shared" si="6"/>
@@ -39929,15 +39928,15 @@
       <c r="F113">
         <v>220.3125</v>
       </c>
-      <c r="G113" t="str">
+      <c r="H113" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(112,1') = 220.3125;</v>
+        <v>TX1(112,1) = 220.3125;</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(113,0') = 0.432499999999999;</v>
+        <v>TX1(113,0) = 0.432499999999999;</v>
       </c>
       <c r="C114">
         <f t="shared" si="6"/>
@@ -39953,15 +39952,15 @@
       <c r="F114">
         <v>225</v>
       </c>
-      <c r="G114" t="str">
+      <c r="H114" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(113,1') = 225;</v>
+        <v>TX1(113,1) = 225;</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(114,0') = 0.432499999999999;</v>
+        <v>TX1(114,0) = 0.432499999999999;</v>
       </c>
       <c r="C115">
         <f t="shared" si="6"/>
@@ -39977,15 +39976,15 @@
       <c r="F115">
         <v>229.6875</v>
       </c>
-      <c r="G115" t="str">
+      <c r="H115" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(114,1') = 229.6875;</v>
+        <v>TX1(114,1) = 229.6875;</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(115,0') = 0.432499999999999;</v>
+        <v>TX1(115,0) = 0.432499999999999;</v>
       </c>
       <c r="C116">
         <f t="shared" si="6"/>
@@ -40001,15 +40000,15 @@
       <c r="F116">
         <v>234.375</v>
       </c>
-      <c r="G116" t="str">
+      <c r="H116" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(115,1') = 234.375;</v>
+        <v>TX1(115,1) = 234.375;</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(116,0') = 0.432499999999999;</v>
+        <v>TX1(116,0) = 0.432499999999999;</v>
       </c>
       <c r="C117">
         <f t="shared" si="6"/>
@@ -40025,15 +40024,15 @@
       <c r="F117">
         <v>239.0625</v>
       </c>
-      <c r="G117" t="str">
+      <c r="H117" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(116,1') = 239.0625;</v>
+        <v>TX1(116,1) = 239.0625;</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(117,0') = 0.432499999999999;</v>
+        <v>TX1(117,0) = 0.432499999999999;</v>
       </c>
       <c r="C118">
         <f t="shared" si="6"/>
@@ -40049,15 +40048,15 @@
       <c r="F118">
         <v>243.75</v>
       </c>
-      <c r="G118" t="str">
+      <c r="H118" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(117,1') = 243.75;</v>
+        <v>TX1(117,1) = 243.75;</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(118,0') = 0.432499999999999;</v>
+        <v>TX1(118,0) = 0.432499999999999;</v>
       </c>
       <c r="C119">
         <f t="shared" si="6"/>
@@ -40073,15 +40072,15 @@
       <c r="F119">
         <v>248.4375</v>
       </c>
-      <c r="G119" t="str">
+      <c r="H119" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(118,1') = 248.4375;</v>
+        <v>TX1(118,1) = 248.4375;</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(119,0') = 0.432499999999999;</v>
+        <v>TX1(119,0) = 0.432499999999999;</v>
       </c>
       <c r="C120">
         <f t="shared" si="6"/>
@@ -40097,15 +40096,15 @@
       <c r="F120">
         <v>253.125</v>
       </c>
-      <c r="G120" t="str">
+      <c r="H120" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(119,1') = 253.125;</v>
+        <v>TX1(119,1) = 253.125;</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(120,0') = 0.432499999999999;</v>
+        <v>TX1(120,0) = 0.432499999999999;</v>
       </c>
       <c r="C121">
         <f t="shared" si="6"/>
@@ -40121,15 +40120,15 @@
       <c r="F121">
         <v>257.8125</v>
       </c>
-      <c r="G121" t="str">
+      <c r="H121" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(120,1') = 257.8125;</v>
+        <v>TX1(120,1) = 257.8125;</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(121,0') = 0.432499999999999;</v>
+        <v>TX1(121,0) = 0.432499999999999;</v>
       </c>
       <c r="C122">
         <f t="shared" si="6"/>
@@ -40145,15 +40144,15 @@
       <c r="F122">
         <v>262.5</v>
       </c>
-      <c r="G122" t="str">
+      <c r="H122" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(121,1') = 262.5;</v>
+        <v>TX1(121,1) = 262.5;</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(122,0') = 0.432499999999999;</v>
+        <v>TX1(122,0) = 0.432499999999999;</v>
       </c>
       <c r="C123">
         <f t="shared" si="6"/>
@@ -40169,15 +40168,15 @@
       <c r="F123">
         <v>267.1875</v>
       </c>
-      <c r="G123" t="str">
+      <c r="H123" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(122,1') = 267.1875;</v>
+        <v>TX1(122,1) = 267.1875;</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(123,0') = 0.432499999999999;</v>
+        <v>TX1(123,0) = 0.432499999999999;</v>
       </c>
       <c r="C124">
         <f t="shared" si="6"/>
@@ -40193,15 +40192,15 @@
       <c r="F124">
         <v>271.875</v>
       </c>
-      <c r="G124" t="str">
+      <c r="H124" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(123,1') = 271.875;</v>
+        <v>TX1(123,1) = 271.875;</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(124,0') = 0.432499999999999;</v>
+        <v>TX1(124,0) = 0.432499999999999;</v>
       </c>
       <c r="C125">
         <f t="shared" si="6"/>
@@ -40217,15 +40216,15 @@
       <c r="F125">
         <v>276.5625</v>
       </c>
-      <c r="G125" t="str">
+      <c r="H125" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(124,1') = 276.5625;</v>
+        <v>TX1(124,1) = 276.5625;</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(125,0') = 0.432499999999999;</v>
+        <v>TX1(125,0) = 0.432499999999999;</v>
       </c>
       <c r="C126">
         <f t="shared" si="6"/>
@@ -40241,15 +40240,15 @@
       <c r="F126">
         <v>281.25</v>
       </c>
-      <c r="G126" t="str">
+      <c r="H126" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(125,1') = 281.25;</v>
+        <v>TX1(125,1) = 281.25;</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(126,0') = 0.432499999999999;</v>
+        <v>TX1(126,0) = 0.432499999999999;</v>
       </c>
       <c r="C127">
         <f t="shared" si="6"/>
@@ -40265,15 +40264,15 @@
       <c r="F127">
         <v>285.9375</v>
       </c>
-      <c r="G127" t="str">
+      <c r="H127" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(126,1') = 285.9375;</v>
+        <v>TX1(126,1) = 285.9375;</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(127,0') = 0.432499999999999;</v>
+        <v>TX1(127,0) = 0.432499999999999;</v>
       </c>
       <c r="C128">
         <f t="shared" si="6"/>
@@ -40289,15 +40288,15 @@
       <c r="F128">
         <v>290.625</v>
       </c>
-      <c r="G128" t="str">
+      <c r="H128" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(127,1') = 290.625;</v>
+        <v>TX1(127,1) = 290.625;</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(128,0') = 0.432499999999999;</v>
+        <v>TX1(128,0) = 0.432499999999999;</v>
       </c>
       <c r="C129">
         <f t="shared" si="6"/>
@@ -40313,15 +40312,15 @@
       <c r="F129">
         <v>295.3125</v>
       </c>
-      <c r="G129" t="str">
+      <c r="H129" t="str">
         <f t="shared" si="5"/>
-        <v>TX1(128,1') = 295.3125;</v>
+        <v>TX1(128,1) = 295.3125;</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="8">_xlfn.CONCAT("TX1(",C130,",0","') = ",E130,";")</f>
-        <v>TX1(129,0') = 0.432499999999999;</v>
+        <f t="shared" ref="B130:B193" si="8">_xlfn.CONCAT("TX1(",C130,",0",") = ",E130,";")</f>
+        <v>TX1(129,0) = 0.432499999999999;</v>
       </c>
       <c r="C130">
         <f t="shared" si="6"/>
@@ -40337,15 +40336,15 @@
       <c r="F130">
         <v>300</v>
       </c>
-      <c r="G130" t="str">
-        <f t="shared" ref="G130:G193" si="9">_xlfn.CONCAT("TX1(",C130,",1","') = ",F130,";")</f>
-        <v>TX1(129,1') = 300;</v>
+      <c r="H130" t="str">
+        <f t="shared" ref="H130:H193" si="9">_xlfn.CONCAT("TX1(",C130,",1",") = ",F130,";")</f>
+        <v>TX1(129,1) = 300;</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(130,0') = 0.864999999999999;</v>
+        <v>TX1(130,0) = 0.864999999999999;</v>
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="10">C130+1</f>
@@ -40361,15 +40360,15 @@
       <c r="F131">
         <v>0</v>
       </c>
-      <c r="G131" t="str">
+      <c r="H131" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(130,1') = 0;</v>
+        <v>TX1(130,1) = 0;</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(131,0') = 0.864999999999999;</v>
+        <v>TX1(131,0) = 0.864999999999999;</v>
       </c>
       <c r="C132">
         <f t="shared" si="10"/>
@@ -40385,15 +40384,15 @@
       <c r="F132">
         <v>4.6875</v>
       </c>
-      <c r="G132" t="str">
+      <c r="H132" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(131,1') = 4.6875;</v>
+        <v>TX1(131,1) = 4.6875;</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(132,0') = 0.864999999999999;</v>
+        <v>TX1(132,0) = 0.864999999999999;</v>
       </c>
       <c r="C133">
         <f t="shared" si="10"/>
@@ -40409,15 +40408,15 @@
       <c r="F133">
         <v>9.375</v>
       </c>
-      <c r="G133" t="str">
+      <c r="H133" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(132,1') = 9.375;</v>
+        <v>TX1(132,1) = 9.375;</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(133,0') = 0.864999999999999;</v>
+        <v>TX1(133,0) = 0.864999999999999;</v>
       </c>
       <c r="C134">
         <f t="shared" si="10"/>
@@ -40433,15 +40432,15 @@
       <c r="F134">
         <v>14.0625</v>
       </c>
-      <c r="G134" t="str">
+      <c r="H134" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(133,1') = 14.0625;</v>
+        <v>TX1(133,1) = 14.0625;</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(134,0') = 0.864999999999999;</v>
+        <v>TX1(134,0) = 0.864999999999999;</v>
       </c>
       <c r="C135">
         <f t="shared" si="10"/>
@@ -40457,15 +40456,15 @@
       <c r="F135">
         <v>18.75</v>
       </c>
-      <c r="G135" t="str">
+      <c r="H135" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(134,1') = 18.75;</v>
+        <v>TX1(134,1) = 18.75;</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(135,0') = 0.864999999999999;</v>
+        <v>TX1(135,0) = 0.864999999999999;</v>
       </c>
       <c r="C136">
         <f t="shared" si="10"/>
@@ -40481,15 +40480,15 @@
       <c r="F136">
         <v>23.4375</v>
       </c>
-      <c r="G136" t="str">
+      <c r="H136" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(135,1') = 23.4375;</v>
+        <v>TX1(135,1) = 23.4375;</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(136,0') = 0.864999999999999;</v>
+        <v>TX1(136,0) = 0.864999999999999;</v>
       </c>
       <c r="C137">
         <f t="shared" si="10"/>
@@ -40505,15 +40504,15 @@
       <c r="F137">
         <v>28.125</v>
       </c>
-      <c r="G137" t="str">
+      <c r="H137" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(136,1') = 28.125;</v>
+        <v>TX1(136,1) = 28.125;</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(137,0') = 0.864999999999999;</v>
+        <v>TX1(137,0) = 0.864999999999999;</v>
       </c>
       <c r="C138">
         <f t="shared" si="10"/>
@@ -40529,15 +40528,15 @@
       <c r="F138">
         <v>32.8125</v>
       </c>
-      <c r="G138" t="str">
+      <c r="H138" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(137,1') = 32.8125;</v>
+        <v>TX1(137,1) = 32.8125;</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(138,0') = 0.864999999999999;</v>
+        <v>TX1(138,0) = 0.864999999999999;</v>
       </c>
       <c r="C139">
         <f t="shared" si="10"/>
@@ -40553,15 +40552,15 @@
       <c r="F139">
         <v>37.5</v>
       </c>
-      <c r="G139" t="str">
+      <c r="H139" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(138,1') = 37.5;</v>
+        <v>TX1(138,1) = 37.5;</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(139,0') = 0.864999999999999;</v>
+        <v>TX1(139,0) = 0.864999999999999;</v>
       </c>
       <c r="C140">
         <f t="shared" si="10"/>
@@ -40577,15 +40576,15 @@
       <c r="F140">
         <v>42.1875</v>
       </c>
-      <c r="G140" t="str">
+      <c r="H140" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(139,1') = 42.1875;</v>
+        <v>TX1(139,1) = 42.1875;</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(140,0') = 0.864999999999999;</v>
+        <v>TX1(140,0) = 0.864999999999999;</v>
       </c>
       <c r="C141">
         <f t="shared" si="10"/>
@@ -40601,15 +40600,15 @@
       <c r="F141">
         <v>46.875</v>
       </c>
-      <c r="G141" t="str">
+      <c r="H141" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(140,1') = 46.875;</v>
+        <v>TX1(140,1) = 46.875;</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(141,0') = 0.864999999999999;</v>
+        <v>TX1(141,0) = 0.864999999999999;</v>
       </c>
       <c r="C142">
         <f t="shared" si="10"/>
@@ -40625,15 +40624,15 @@
       <c r="F142">
         <v>51.5625</v>
       </c>
-      <c r="G142" t="str">
+      <c r="H142" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(141,1') = 51.5625;</v>
+        <v>TX1(141,1) = 51.5625;</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(142,0') = 0.864999999999999;</v>
+        <v>TX1(142,0) = 0.864999999999999;</v>
       </c>
       <c r="C143">
         <f t="shared" si="10"/>
@@ -40649,15 +40648,15 @@
       <c r="F143">
         <v>56.25</v>
       </c>
-      <c r="G143" t="str">
+      <c r="H143" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(142,1') = 56.25;</v>
+        <v>TX1(142,1) = 56.25;</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(143,0') = 0.864999999999999;</v>
+        <v>TX1(143,0) = 0.864999999999999;</v>
       </c>
       <c r="C144">
         <f t="shared" si="10"/>
@@ -40673,15 +40672,15 @@
       <c r="F144">
         <v>60.9375</v>
       </c>
-      <c r="G144" t="str">
+      <c r="H144" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(143,1') = 60.9375;</v>
+        <v>TX1(143,1) = 60.9375;</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(144,0') = 0.864999999999999;</v>
+        <v>TX1(144,0) = 0.864999999999999;</v>
       </c>
       <c r="C145">
         <f t="shared" si="10"/>
@@ -40697,15 +40696,15 @@
       <c r="F145">
         <v>65.625</v>
       </c>
-      <c r="G145" t="str">
+      <c r="H145" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(144,1') = 65.625;</v>
+        <v>TX1(144,1) = 65.625;</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(145,0') = 0.864999999999999;</v>
+        <v>TX1(145,0) = 0.864999999999999;</v>
       </c>
       <c r="C146">
         <f t="shared" si="10"/>
@@ -40721,15 +40720,15 @@
       <c r="F146">
         <v>70.3125</v>
       </c>
-      <c r="G146" t="str">
+      <c r="H146" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(145,1') = 70.3125;</v>
+        <v>TX1(145,1) = 70.3125;</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(146,0') = 0.864999999999999;</v>
+        <v>TX1(146,0) = 0.864999999999999;</v>
       </c>
       <c r="C147">
         <f t="shared" si="10"/>
@@ -40745,15 +40744,15 @@
       <c r="F147">
         <v>75</v>
       </c>
-      <c r="G147" t="str">
+      <c r="H147" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(146,1') = 75;</v>
+        <v>TX1(146,1) = 75;</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(147,0') = 0.864999999999999;</v>
+        <v>TX1(147,0) = 0.864999999999999;</v>
       </c>
       <c r="C148">
         <f t="shared" si="10"/>
@@ -40769,15 +40768,15 @@
       <c r="F148">
         <v>79.6875</v>
       </c>
-      <c r="G148" t="str">
+      <c r="H148" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(147,1') = 79.6875;</v>
+        <v>TX1(147,1) = 79.6875;</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(148,0') = 0.864999999999999;</v>
+        <v>TX1(148,0) = 0.864999999999999;</v>
       </c>
       <c r="C149">
         <f t="shared" si="10"/>
@@ -40793,15 +40792,15 @@
       <c r="F149">
         <v>84.375</v>
       </c>
-      <c r="G149" t="str">
+      <c r="H149" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(148,1') = 84.375;</v>
+        <v>TX1(148,1) = 84.375;</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(149,0') = 0.864999999999999;</v>
+        <v>TX1(149,0) = 0.864999999999999;</v>
       </c>
       <c r="C150">
         <f t="shared" si="10"/>
@@ -40817,15 +40816,15 @@
       <c r="F150">
         <v>89.0625</v>
       </c>
-      <c r="G150" t="str">
+      <c r="H150" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(149,1') = 89.0625;</v>
+        <v>TX1(149,1) = 89.0625;</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(150,0') = 0.864999999999999;</v>
+        <v>TX1(150,0) = 0.864999999999999;</v>
       </c>
       <c r="C151">
         <f t="shared" si="10"/>
@@ -40841,15 +40840,15 @@
       <c r="F151">
         <v>93.75</v>
       </c>
-      <c r="G151" t="str">
+      <c r="H151" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(150,1') = 93.75;</v>
+        <v>TX1(150,1) = 93.75;</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(151,0') = 0.864999999999999;</v>
+        <v>TX1(151,0) = 0.864999999999999;</v>
       </c>
       <c r="C152">
         <f t="shared" si="10"/>
@@ -40865,15 +40864,15 @@
       <c r="F152">
         <v>98.4375</v>
       </c>
-      <c r="G152" t="str">
+      <c r="H152" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(151,1') = 98.4375;</v>
+        <v>TX1(151,1) = 98.4375;</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(152,0') = 0.864999999999999;</v>
+        <v>TX1(152,0) = 0.864999999999999;</v>
       </c>
       <c r="C153">
         <f t="shared" si="10"/>
@@ -40889,15 +40888,15 @@
       <c r="F153">
         <v>103.125</v>
       </c>
-      <c r="G153" t="str">
+      <c r="H153" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(152,1') = 103.125;</v>
+        <v>TX1(152,1) = 103.125;</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(153,0') = 0.864999999999999;</v>
+        <v>TX1(153,0) = 0.864999999999999;</v>
       </c>
       <c r="C154">
         <f t="shared" si="10"/>
@@ -40913,15 +40912,15 @@
       <c r="F154">
         <v>107.8125</v>
       </c>
-      <c r="G154" t="str">
+      <c r="H154" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(153,1') = 107.8125;</v>
+        <v>TX1(153,1) = 107.8125;</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(154,0') = 0.864999999999999;</v>
+        <v>TX1(154,0) = 0.864999999999999;</v>
       </c>
       <c r="C155">
         <f t="shared" si="10"/>
@@ -40937,15 +40936,15 @@
       <c r="F155">
         <v>112.5</v>
       </c>
-      <c r="G155" t="str">
+      <c r="H155" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(154,1') = 112.5;</v>
+        <v>TX1(154,1) = 112.5;</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(155,0') = 0.864999999999999;</v>
+        <v>TX1(155,0) = 0.864999999999999;</v>
       </c>
       <c r="C156">
         <f t="shared" si="10"/>
@@ -40961,15 +40960,15 @@
       <c r="F156">
         <v>117.1875</v>
       </c>
-      <c r="G156" t="str">
+      <c r="H156" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(155,1') = 117.1875;</v>
+        <v>TX1(155,1) = 117.1875;</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(156,0') = 0.864999999999999;</v>
+        <v>TX1(156,0) = 0.864999999999999;</v>
       </c>
       <c r="C157">
         <f t="shared" si="10"/>
@@ -40985,15 +40984,15 @@
       <c r="F157">
         <v>121.875</v>
       </c>
-      <c r="G157" t="str">
+      <c r="H157" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(156,1') = 121.875;</v>
+        <v>TX1(156,1) = 121.875;</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(157,0') = 0.864999999999999;</v>
+        <v>TX1(157,0) = 0.864999999999999;</v>
       </c>
       <c r="C158">
         <f t="shared" si="10"/>
@@ -41009,15 +41008,15 @@
       <c r="F158">
         <v>126.5625</v>
       </c>
-      <c r="G158" t="str">
+      <c r="H158" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(157,1') = 126.5625;</v>
+        <v>TX1(157,1) = 126.5625;</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(158,0') = 0.864999999999999;</v>
+        <v>TX1(158,0) = 0.864999999999999;</v>
       </c>
       <c r="C159">
         <f t="shared" si="10"/>
@@ -41033,15 +41032,15 @@
       <c r="F159">
         <v>131.25</v>
       </c>
-      <c r="G159" t="str">
+      <c r="H159" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(158,1') = 131.25;</v>
+        <v>TX1(158,1) = 131.25;</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(159,0') = 0.864999999999999;</v>
+        <v>TX1(159,0) = 0.864999999999999;</v>
       </c>
       <c r="C160">
         <f t="shared" si="10"/>
@@ -41057,15 +41056,15 @@
       <c r="F160">
         <v>135.9375</v>
       </c>
-      <c r="G160" t="str">
+      <c r="H160" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(159,1') = 135.9375;</v>
+        <v>TX1(159,1) = 135.9375;</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(160,0') = 0.864999999999999;</v>
+        <v>TX1(160,0) = 0.864999999999999;</v>
       </c>
       <c r="C161">
         <f t="shared" si="10"/>
@@ -41081,15 +41080,15 @@
       <c r="F161">
         <v>140.625</v>
       </c>
-      <c r="G161" t="str">
+      <c r="H161" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(160,1') = 140.625;</v>
+        <v>TX1(160,1) = 140.625;</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(161,0') = 0.864999999999999;</v>
+        <v>TX1(161,0) = 0.864999999999999;</v>
       </c>
       <c r="C162">
         <f t="shared" si="10"/>
@@ -41105,15 +41104,15 @@
       <c r="F162">
         <v>145.3125</v>
       </c>
-      <c r="G162" t="str">
+      <c r="H162" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(161,1') = 145.3125;</v>
+        <v>TX1(161,1) = 145.3125;</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(162,0') = 0.864999999999999;</v>
+        <v>TX1(162,0) = 0.864999999999999;</v>
       </c>
       <c r="C163">
         <f t="shared" si="10"/>
@@ -41129,15 +41128,15 @@
       <c r="F163">
         <v>150</v>
       </c>
-      <c r="G163" t="str">
+      <c r="H163" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(162,1') = 150;</v>
+        <v>TX1(162,1) = 150;</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(163,0') = 0.864999999999999;</v>
+        <v>TX1(163,0) = 0.864999999999999;</v>
       </c>
       <c r="C164">
         <f t="shared" si="10"/>
@@ -41153,15 +41152,15 @@
       <c r="F164">
         <v>154.6875</v>
       </c>
-      <c r="G164" t="str">
+      <c r="H164" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(163,1') = 154.6875;</v>
+        <v>TX1(163,1) = 154.6875;</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(164,0') = 0.864999999999999;</v>
+        <v>TX1(164,0) = 0.864999999999999;</v>
       </c>
       <c r="C165">
         <f t="shared" si="10"/>
@@ -41177,15 +41176,15 @@
       <c r="F165">
         <v>159.375</v>
       </c>
-      <c r="G165" t="str">
+      <c r="H165" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(164,1') = 159.375;</v>
+        <v>TX1(164,1) = 159.375;</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(165,0') = 0.864999999999999;</v>
+        <v>TX1(165,0) = 0.864999999999999;</v>
       </c>
       <c r="C166">
         <f t="shared" si="10"/>
@@ -41201,15 +41200,15 @@
       <c r="F166">
         <v>164.0625</v>
       </c>
-      <c r="G166" t="str">
+      <c r="H166" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(165,1') = 164.0625;</v>
+        <v>TX1(165,1) = 164.0625;</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(166,0') = 0.864999999999999;</v>
+        <v>TX1(166,0) = 0.864999999999999;</v>
       </c>
       <c r="C167">
         <f t="shared" si="10"/>
@@ -41225,15 +41224,15 @@
       <c r="F167">
         <v>168.75</v>
       </c>
-      <c r="G167" t="str">
+      <c r="H167" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(166,1') = 168.75;</v>
+        <v>TX1(166,1) = 168.75;</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(167,0') = 0.864999999999999;</v>
+        <v>TX1(167,0) = 0.864999999999999;</v>
       </c>
       <c r="C168">
         <f t="shared" si="10"/>
@@ -41249,15 +41248,15 @@
       <c r="F168">
         <v>173.4375</v>
       </c>
-      <c r="G168" t="str">
+      <c r="H168" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(167,1') = 173.4375;</v>
+        <v>TX1(167,1) = 173.4375;</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(168,0') = 0.864999999999999;</v>
+        <v>TX1(168,0) = 0.864999999999999;</v>
       </c>
       <c r="C169">
         <f t="shared" si="10"/>
@@ -41273,15 +41272,15 @@
       <c r="F169">
         <v>178.125</v>
       </c>
-      <c r="G169" t="str">
+      <c r="H169" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(168,1') = 178.125;</v>
+        <v>TX1(168,1) = 178.125;</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(169,0') = 0.864999999999999;</v>
+        <v>TX1(169,0) = 0.864999999999999;</v>
       </c>
       <c r="C170">
         <f t="shared" si="10"/>
@@ -41297,15 +41296,15 @@
       <c r="F170">
         <v>182.8125</v>
       </c>
-      <c r="G170" t="str">
+      <c r="H170" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(169,1') = 182.8125;</v>
+        <v>TX1(169,1) = 182.8125;</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(170,0') = 0.864999999999999;</v>
+        <v>TX1(170,0) = 0.864999999999999;</v>
       </c>
       <c r="C171">
         <f t="shared" si="10"/>
@@ -41321,15 +41320,15 @@
       <c r="F171">
         <v>187.5</v>
       </c>
-      <c r="G171" t="str">
+      <c r="H171" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(170,1') = 187.5;</v>
+        <v>TX1(170,1) = 187.5;</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(171,0') = 0.864999999999999;</v>
+        <v>TX1(171,0) = 0.864999999999999;</v>
       </c>
       <c r="C172">
         <f t="shared" si="10"/>
@@ -41345,15 +41344,15 @@
       <c r="F172">
         <v>192.1875</v>
       </c>
-      <c r="G172" t="str">
+      <c r="H172" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(171,1') = 192.1875;</v>
+        <v>TX1(171,1) = 192.1875;</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(172,0') = 0.864999999999999;</v>
+        <v>TX1(172,0) = 0.864999999999999;</v>
       </c>
       <c r="C173">
         <f t="shared" si="10"/>
@@ -41369,15 +41368,15 @@
       <c r="F173">
         <v>196.875</v>
       </c>
-      <c r="G173" t="str">
+      <c r="H173" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(172,1') = 196.875;</v>
+        <v>TX1(172,1) = 196.875;</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(173,0') = 0.864999999999999;</v>
+        <v>TX1(173,0) = 0.864999999999999;</v>
       </c>
       <c r="C174">
         <f t="shared" si="10"/>
@@ -41393,15 +41392,15 @@
       <c r="F174">
         <v>201.5625</v>
       </c>
-      <c r="G174" t="str">
+      <c r="H174" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(173,1') = 201.5625;</v>
+        <v>TX1(173,1) = 201.5625;</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(174,0') = 0.864999999999999;</v>
+        <v>TX1(174,0) = 0.864999999999999;</v>
       </c>
       <c r="C175">
         <f t="shared" si="10"/>
@@ -41417,15 +41416,15 @@
       <c r="F175">
         <v>206.25</v>
       </c>
-      <c r="G175" t="str">
+      <c r="H175" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(174,1') = 206.25;</v>
+        <v>TX1(174,1) = 206.25;</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(175,0') = 0.864999999999999;</v>
+        <v>TX1(175,0) = 0.864999999999999;</v>
       </c>
       <c r="C176">
         <f t="shared" si="10"/>
@@ -41441,15 +41440,15 @@
       <c r="F176">
         <v>210.9375</v>
       </c>
-      <c r="G176" t="str">
+      <c r="H176" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(175,1') = 210.9375;</v>
+        <v>TX1(175,1) = 210.9375;</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(176,0') = 0.864999999999999;</v>
+        <v>TX1(176,0) = 0.864999999999999;</v>
       </c>
       <c r="C177">
         <f t="shared" si="10"/>
@@ -41465,15 +41464,15 @@
       <c r="F177">
         <v>215.625</v>
       </c>
-      <c r="G177" t="str">
+      <c r="H177" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(176,1') = 215.625;</v>
+        <v>TX1(176,1) = 215.625;</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(177,0') = 0.864999999999999;</v>
+        <v>TX1(177,0) = 0.864999999999999;</v>
       </c>
       <c r="C178">
         <f t="shared" si="10"/>
@@ -41489,15 +41488,15 @@
       <c r="F178">
         <v>220.3125</v>
       </c>
-      <c r="G178" t="str">
+      <c r="H178" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(177,1') = 220.3125;</v>
+        <v>TX1(177,1) = 220.3125;</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(178,0') = 0.864999999999999;</v>
+        <v>TX1(178,0) = 0.864999999999999;</v>
       </c>
       <c r="C179">
         <f t="shared" si="10"/>
@@ -41513,15 +41512,15 @@
       <c r="F179">
         <v>225</v>
       </c>
-      <c r="G179" t="str">
+      <c r="H179" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(178,1') = 225;</v>
+        <v>TX1(178,1) = 225;</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(179,0') = 0.864999999999999;</v>
+        <v>TX1(179,0) = 0.864999999999999;</v>
       </c>
       <c r="C180">
         <f t="shared" si="10"/>
@@ -41537,15 +41536,15 @@
       <c r="F180">
         <v>229.6875</v>
       </c>
-      <c r="G180" t="str">
+      <c r="H180" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(179,1') = 229.6875;</v>
+        <v>TX1(179,1) = 229.6875;</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(180,0') = 0.864999999999999;</v>
+        <v>TX1(180,0) = 0.864999999999999;</v>
       </c>
       <c r="C181">
         <f t="shared" si="10"/>
@@ -41561,15 +41560,15 @@
       <c r="F181">
         <v>234.375</v>
       </c>
-      <c r="G181" t="str">
+      <c r="H181" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(180,1') = 234.375;</v>
+        <v>TX1(180,1) = 234.375;</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(181,0') = 0.864999999999999;</v>
+        <v>TX1(181,0) = 0.864999999999999;</v>
       </c>
       <c r="C182">
         <f t="shared" si="10"/>
@@ -41585,15 +41584,15 @@
       <c r="F182">
         <v>239.0625</v>
       </c>
-      <c r="G182" t="str">
+      <c r="H182" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(181,1') = 239.0625;</v>
+        <v>TX1(181,1) = 239.0625;</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(182,0') = 0.864999999999999;</v>
+        <v>TX1(182,0) = 0.864999999999999;</v>
       </c>
       <c r="C183">
         <f t="shared" si="10"/>
@@ -41609,15 +41608,15 @@
       <c r="F183">
         <v>243.75</v>
       </c>
-      <c r="G183" t="str">
+      <c r="H183" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(182,1') = 243.75;</v>
+        <v>TX1(182,1) = 243.75;</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(183,0') = 0.864999999999999;</v>
+        <v>TX1(183,0) = 0.864999999999999;</v>
       </c>
       <c r="C184">
         <f t="shared" si="10"/>
@@ -41633,15 +41632,15 @@
       <c r="F184">
         <v>248.4375</v>
       </c>
-      <c r="G184" t="str">
+      <c r="H184" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(183,1') = 248.4375;</v>
+        <v>TX1(183,1) = 248.4375;</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(184,0') = 0.864999999999999;</v>
+        <v>TX1(184,0) = 0.864999999999999;</v>
       </c>
       <c r="C185">
         <f t="shared" si="10"/>
@@ -41657,15 +41656,15 @@
       <c r="F185">
         <v>253.125</v>
       </c>
-      <c r="G185" t="str">
+      <c r="H185" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(184,1') = 253.125;</v>
+        <v>TX1(184,1) = 253.125;</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(185,0') = 0.864999999999999;</v>
+        <v>TX1(185,0) = 0.864999999999999;</v>
       </c>
       <c r="C186">
         <f t="shared" si="10"/>
@@ -41681,15 +41680,15 @@
       <c r="F186">
         <v>257.8125</v>
       </c>
-      <c r="G186" t="str">
+      <c r="H186" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(185,1') = 257.8125;</v>
+        <v>TX1(185,1) = 257.8125;</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(186,0') = 0.864999999999999;</v>
+        <v>TX1(186,0) = 0.864999999999999;</v>
       </c>
       <c r="C187">
         <f t="shared" si="10"/>
@@ -41705,15 +41704,15 @@
       <c r="F187">
         <v>262.5</v>
       </c>
-      <c r="G187" t="str">
+      <c r="H187" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(186,1') = 262.5;</v>
+        <v>TX1(186,1) = 262.5;</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(187,0') = 0.864999999999999;</v>
+        <v>TX1(187,0) = 0.864999999999999;</v>
       </c>
       <c r="C188">
         <f t="shared" si="10"/>
@@ -41729,15 +41728,15 @@
       <c r="F188">
         <v>267.1875</v>
       </c>
-      <c r="G188" t="str">
+      <c r="H188" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(187,1') = 267.1875;</v>
+        <v>TX1(187,1) = 267.1875;</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(188,0') = 0.864999999999999;</v>
+        <v>TX1(188,0) = 0.864999999999999;</v>
       </c>
       <c r="C189">
         <f t="shared" si="10"/>
@@ -41753,15 +41752,15 @@
       <c r="F189">
         <v>271.875</v>
       </c>
-      <c r="G189" t="str">
+      <c r="H189" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(188,1') = 271.875;</v>
+        <v>TX1(188,1) = 271.875;</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(189,0') = 0.864999999999999;</v>
+        <v>TX1(189,0) = 0.864999999999999;</v>
       </c>
       <c r="C190">
         <f t="shared" si="10"/>
@@ -41777,15 +41776,15 @@
       <c r="F190">
         <v>276.5625</v>
       </c>
-      <c r="G190" t="str">
+      <c r="H190" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(189,1') = 276.5625;</v>
+        <v>TX1(189,1) = 276.5625;</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(190,0') = 0.864999999999999;</v>
+        <v>TX1(190,0) = 0.864999999999999;</v>
       </c>
       <c r="C191">
         <f t="shared" si="10"/>
@@ -41801,15 +41800,15 @@
       <c r="F191">
         <v>281.25</v>
       </c>
-      <c r="G191" t="str">
+      <c r="H191" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(190,1') = 281.25;</v>
+        <v>TX1(190,1) = 281.25;</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(191,0') = 0.864999999999999;</v>
+        <v>TX1(191,0) = 0.864999999999999;</v>
       </c>
       <c r="C192">
         <f t="shared" si="10"/>
@@ -41825,15 +41824,15 @@
       <c r="F192">
         <v>285.9375</v>
       </c>
-      <c r="G192" t="str">
+      <c r="H192" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(191,1') = 285.9375;</v>
+        <v>TX1(191,1) = 285.9375;</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="str">
         <f t="shared" si="8"/>
-        <v>TX1(192,0') = 0.864999999999999;</v>
+        <v>TX1(192,0) = 0.864999999999999;</v>
       </c>
       <c r="C193">
         <f t="shared" si="10"/>
@@ -41849,15 +41848,15 @@
       <c r="F193">
         <v>290.625</v>
       </c>
-      <c r="G193" t="str">
+      <c r="H193" t="str">
         <f t="shared" si="9"/>
-        <v>TX1(192,1') = 290.625;</v>
+        <v>TX1(192,1) = 290.625;</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="str">
-        <f>_xlfn.CONCAT("TX1(",C194,",0","') = ",E194,";")</f>
-        <v>TX1(193,0') = 0.864999999999999;</v>
+        <f t="shared" ref="B194" si="12">_xlfn.CONCAT("TX1(",C194,",0",") = ",E194,";")</f>
+        <v>TX1(193,0) = 0.864999999999999;</v>
       </c>
       <c r="C194">
         <f t="shared" si="10"/>
@@ -41873,15 +41872,15 @@
       <c r="F194">
         <v>295.3125</v>
       </c>
-      <c r="G194" t="str">
-        <f>_xlfn.CONCAT("TX1(",C194,",1","') = ",F194,";")</f>
-        <v>TX1(193,1') = 295.3125;</v>
+      <c r="H194" t="str">
+        <f t="shared" ref="H194:H195" si="13">_xlfn.CONCAT("TX1(",C194,",1",") = ",F194,";")</f>
+        <v>TX1(193,1) = 295.3125;</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="str">
-        <f>_xlfn.CONCAT("TX1(",C195,",0","') = ",E195,";")</f>
-        <v>TX1(194,0') = 0.864999999999999;</v>
+        <f>_xlfn.CONCAT("TX1(",C195,",0",") = ",E195,";")</f>
+        <v>TX1(194,0) = 0.864999999999999;</v>
       </c>
       <c r="C195">
         <f>C194+1</f>
@@ -41897,9 +41896,9 @@
       <c r="F195">
         <v>300</v>
       </c>
-      <c r="G195" t="str">
-        <f>_xlfn.CONCAT("TX1(",C195,",1","') = ",F195,";")</f>
-        <v>TX1(194,1') = 300;</v>
+      <c r="H195" t="str">
+        <f t="shared" si="13"/>
+        <v>TX1(194,1) = 300;</v>
       </c>
     </row>
   </sheetData>

--- a/SparseGridCollocation/GenerateCudaTestCode.xlsx
+++ b/SparseGridCollocation/GenerateCudaTestCode.xlsx
@@ -37209,4696 +37209,4256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B875B525-5D66-4742-AEC0-C579B8ABAACC}">
-  <dimension ref="B1:H195"/>
+  <dimension ref="B1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H195" sqref="H1:H195"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="str">
-        <f>_xlfn.CONCAT("TX1(",C1,",0",") = ",E1,";")</f>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="str">
+        <f>_xlfn.CONCAT("TX1(",B1,",0",") = ",D1,";")</f>
         <v>TX1(0,0) = 0;</v>
       </c>
-      <c r="C1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="H1" t="str">
-        <f>_xlfn.CONCAT("TX1(",C1,",1",") = ",F1,";")</f>
+      <c r="J1" t="str">
+        <f>_xlfn.CONCAT("TX1(",B1,",1",") = ",E1,";")</f>
         <v>TX1(0,1) = 0;</v>
       </c>
+      <c r="K1" t="str">
+        <f>_xlfn.CONCAT("TX1(",B1,",2",") = ",F1,";")</f>
+        <v>TX1(0,2) = 0;</v>
+      </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("TX1(",C2,",0",") = ",E2,";")</f>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>37.5</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("TX1(",B2,",0",") = ",D2,";")</f>
         <v>TX1(1,0) = 0;</v>
       </c>
-      <c r="C2">
-        <f>C1+1</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f>D1+1</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>4.6875</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H65" si="1">_xlfn.CONCAT("TX1(",C2,",1",") = ",F2,";")</f>
-        <v>TX1(1,1) = 4.6875;</v>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J65" si="0">_xlfn.CONCAT("TX1(",B2,",1",") = ",E2,";")</f>
+        <v>TX1(1,1) = 0;</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K65" si="1">_xlfn.CONCAT("TX1(",B2,",2",") = ",F2,";")</f>
+        <v>TX1(1,2) = 37.5;</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="str">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="2">B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT("TX1(",B3,",0",") = ",D3,";")</f>
+        <v>TX1(2,0) = 0;</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" si="0"/>
-        <v>TX1(2,0) = 0;</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="2">C2+1</f>
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="3">D2+1</f>
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>9.375</v>
-      </c>
-      <c r="H3" t="str">
+        <v>TX1(2,1) = 0;</v>
+      </c>
+      <c r="K3" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(2,1) = 9.375;</v>
+        <v>TX1(2,2) = 75;</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(3,0) = 0;</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.0625</v>
-      </c>
-      <c r="H4" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT("TX1(",B4,",0",") = ",D4,";")</f>
+        <v>TX1(3,0) = 0;</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(3,1) = 0;</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(3,1) = 14.0625;</v>
+        <v>TX1(3,2) = 112.5;</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(4,0) = 0;</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.75</v>
-      </c>
-      <c r="H5" t="str">
+        <v>150</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xlfn.CONCAT("TX1(",B5,",0",") = ",D5,";")</f>
+        <v>TX1(4,0) = 0;</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(4,1) = 0;</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(4,1) = 18.75;</v>
+        <v>TX1(4,2) = 150;</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(5,0) = 0;</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.4375</v>
-      </c>
-      <c r="H6" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I6" t="str">
+        <f>_xlfn.CONCAT("TX1(",B6,",0",") = ",D6,";")</f>
+        <v>TX1(5,0) = 0;</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(5,1) = 0;</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(5,1) = 23.4375;</v>
+        <v>TX1(5,2) = 187.5;</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(6,0) = 0;</v>
-      </c>
-      <c r="C7">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.125</v>
-      </c>
-      <c r="H7" t="str">
+        <v>225</v>
+      </c>
+      <c r="I7" t="str">
+        <f>_xlfn.CONCAT("TX1(",B7,",0",") = ",D7,";")</f>
+        <v>TX1(6,0) = 0;</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(6,1) = 0;</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(6,1) = 28.125;</v>
+        <v>TX1(6,2) = 225;</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(7,0) = 0;</v>
-      </c>
-      <c r="C8">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.8125</v>
-      </c>
-      <c r="H8" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I8" t="str">
+        <f>_xlfn.CONCAT("TX1(",B8,",0",") = ",D8,";")</f>
+        <v>TX1(7,0) = 0;</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(7,1) = 0;</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(7,1) = 32.8125;</v>
+        <v>TX1(7,2) = 262.5;</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(8,0) = 0;</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.5</v>
-      </c>
-      <c r="H9" t="str">
+        <v>300</v>
+      </c>
+      <c r="I9" t="str">
+        <f>_xlfn.CONCAT("TX1(",B9,",0",") = ",D9,";")</f>
+        <v>TX1(8,0) = 0;</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(8,1) = 0;</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(8,1) = 37.5;</v>
+        <v>TX1(8,2) = 300;</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(9,0) = 0;</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F10">
-        <v>42.1875</v>
-      </c>
-      <c r="H10" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f>_xlfn.CONCAT("TX1(",B10,",0",") = ",D10,";")</f>
+        <v>TX1(9,0) = 0;</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(9,1) = 150;</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(9,1) = 42.1875;</v>
+        <v>TX1(9,2) = 0;</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(10,0) = 0;</v>
-      </c>
-      <c r="C11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F11">
-        <v>46.875</v>
-      </c>
-      <c r="H11" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I11" t="str">
+        <f>_xlfn.CONCAT("TX1(",B11,",0",") = ",D11,";")</f>
+        <v>TX1(10,0) = 0;</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(10,1) = 150;</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(10,1) = 46.875;</v>
+        <v>TX1(10,2) = 37.5;</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(11,0) = 0;</v>
-      </c>
-      <c r="C12">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F12">
-        <v>51.5625</v>
-      </c>
-      <c r="H12" t="str">
+        <v>75</v>
+      </c>
+      <c r="I12" t="str">
+        <f>_xlfn.CONCAT("TX1(",B12,",0",") = ",D12,";")</f>
+        <v>TX1(11,0) = 0;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(11,1) = 150;</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(11,1) = 51.5625;</v>
+        <v>TX1(11,2) = 75;</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(12,0) = 0;</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F13">
-        <v>56.25</v>
-      </c>
-      <c r="H13" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I13" t="str">
+        <f>_xlfn.CONCAT("TX1(",B13,",0",") = ",D13,";")</f>
+        <v>TX1(12,0) = 0;</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(12,1) = 150;</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(12,1) = 56.25;</v>
+        <v>TX1(12,2) = 112.5;</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(13,0) = 0;</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F14">
-        <v>60.9375</v>
-      </c>
-      <c r="H14" t="str">
+        <v>150</v>
+      </c>
+      <c r="I14" t="str">
+        <f>_xlfn.CONCAT("TX1(",B14,",0",") = ",D14,";")</f>
+        <v>TX1(13,0) = 0;</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(13,1) = 150;</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(13,1) = 60.9375;</v>
+        <v>TX1(13,2) = 150;</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(14,0) = 0;</v>
-      </c>
-      <c r="C15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F15">
-        <v>65.625</v>
-      </c>
-      <c r="H15" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT("TX1(",B15,",0",") = ",D15,";")</f>
+        <v>TX1(14,0) = 0;</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(14,1) = 150;</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(14,1) = 65.625;</v>
+        <v>TX1(14,2) = 187.5;</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(15,0) = 0;</v>
-      </c>
-      <c r="C16">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F16">
-        <v>70.3125</v>
-      </c>
-      <c r="H16" t="str">
+        <v>225</v>
+      </c>
+      <c r="I16" t="str">
+        <f>_xlfn.CONCAT("TX1(",B16,",0",") = ",D16,";")</f>
+        <v>TX1(15,0) = 0;</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(15,1) = 150;</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(15,1) = 70.3125;</v>
+        <v>TX1(15,2) = 225;</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(16,0) = 0;</v>
-      </c>
-      <c r="C17">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F17">
-        <v>75</v>
-      </c>
-      <c r="H17" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I17" t="str">
+        <f>_xlfn.CONCAT("TX1(",B17,",0",") = ",D17,";")</f>
+        <v>TX1(16,0) = 0;</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(16,1) = 150;</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(16,1) = 75;</v>
+        <v>TX1(16,2) = 262.5;</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(17,0) = 0;</v>
-      </c>
-      <c r="C18">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F18">
-        <v>79.6875</v>
-      </c>
-      <c r="H18" t="str">
+        <v>300</v>
+      </c>
+      <c r="I18" t="str">
+        <f>_xlfn.CONCAT("TX1(",B18,",0",") = ",D18,";")</f>
+        <v>TX1(17,0) = 0;</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(17,1) = 150;</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(17,1) = 79.6875;</v>
+        <v>TX1(17,2) = 300;</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(18,0) = 0;</v>
-      </c>
-      <c r="C19">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F19">
-        <v>84.375</v>
-      </c>
-      <c r="H19" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <f>_xlfn.CONCAT("TX1(",B19,",0",") = ",D19,";")</f>
+        <v>TX1(18,0) = 0;</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(18,1) = 300;</v>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(18,1) = 84.375;</v>
+        <v>TX1(18,2) = 0;</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(19,0) = 0;</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20">
-        <v>89.0625</v>
-      </c>
-      <c r="H20" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I20" t="str">
+        <f>_xlfn.CONCAT("TX1(",B20,",0",") = ",D20,";")</f>
+        <v>TX1(19,0) = 0;</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(19,1) = 300;</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(19,1) = 89.0625;</v>
+        <v>TX1(19,2) = 37.5;</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(20,0) = 0;</v>
-      </c>
-      <c r="C21">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F21">
-        <v>93.75</v>
-      </c>
-      <c r="H21" t="str">
+        <v>75</v>
+      </c>
+      <c r="I21" t="str">
+        <f>_xlfn.CONCAT("TX1(",B21,",0",") = ",D21,";")</f>
+        <v>TX1(20,0) = 0;</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(20,1) = 300;</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(20,1) = 93.75;</v>
+        <v>TX1(20,2) = 75;</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(21,0) = 0;</v>
-      </c>
-      <c r="C22">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22">
-        <v>98.4375</v>
-      </c>
-      <c r="H22" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I22" t="str">
+        <f>_xlfn.CONCAT("TX1(",B22,",0",") = ",D22,";")</f>
+        <v>TX1(21,0) = 0;</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(21,1) = 300;</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(21,1) = 98.4375;</v>
+        <v>TX1(21,2) = 112.5;</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(22,0) = 0;</v>
-      </c>
-      <c r="C23">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F23">
-        <v>103.125</v>
-      </c>
-      <c r="H23" t="str">
+        <v>150</v>
+      </c>
+      <c r="I23" t="str">
+        <f>_xlfn.CONCAT("TX1(",B23,",0",") = ",D23,";")</f>
+        <v>TX1(22,0) = 0;</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(22,1) = 300;</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(22,1) = 103.125;</v>
+        <v>TX1(22,2) = 150;</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(23,0) = 0;</v>
-      </c>
-      <c r="C24">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24">
-        <v>107.8125</v>
-      </c>
-      <c r="H24" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I24" t="str">
+        <f>_xlfn.CONCAT("TX1(",B24,",0",") = ",D24,";")</f>
+        <v>TX1(23,0) = 0;</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(23,1) = 300;</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(23,1) = 107.8125;</v>
+        <v>TX1(23,2) = 187.5;</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(24,0) = 0;</v>
-      </c>
-      <c r="C25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F25">
-        <v>112.5</v>
-      </c>
-      <c r="H25" t="str">
+        <v>225</v>
+      </c>
+      <c r="I25" t="str">
+        <f>_xlfn.CONCAT("TX1(",B25,",0",") = ",D25,";")</f>
+        <v>TX1(24,0) = 0;</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(24,1) = 300;</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(24,1) = 112.5;</v>
+        <v>TX1(24,2) = 225;</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(25,0) = 0;</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F26">
-        <v>117.1875</v>
-      </c>
-      <c r="H26" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I26" t="str">
+        <f>_xlfn.CONCAT("TX1(",B26,",0",") = ",D26,";")</f>
+        <v>TX1(25,0) = 0;</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(25,1) = 300;</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(25,1) = 117.1875;</v>
+        <v>TX1(25,2) = 262.5;</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(26,0) = 0;</v>
-      </c>
-      <c r="C27">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F27">
-        <v>121.875</v>
-      </c>
-      <c r="H27" t="str">
+        <v>300</v>
+      </c>
+      <c r="I27" t="str">
+        <f>_xlfn.CONCAT("TX1(",B27,",0",") = ",D27,";")</f>
+        <v>TX1(26,0) = 0;</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(26,1) = 300;</v>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(26,1) = 121.875;</v>
+        <v>TX1(26,2) = 300;</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(27,0) = 0;</v>
-      </c>
-      <c r="C28">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>126.5625</v>
-      </c>
-      <c r="H28" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" t="str">
+        <f>_xlfn.CONCAT("TX1(",B28,",0",") = ",D28,";")</f>
+        <v>TX1(27,0) = 0.456;</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(27,1) = 0;</v>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(27,1) = 126.5625;</v>
+        <v>TX1(27,2) = 0;</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(28,0) = 0;</v>
-      </c>
-      <c r="C29">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>131.25</v>
-      </c>
-      <c r="H29" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I29" t="str">
+        <f>_xlfn.CONCAT("TX1(",B29,",0",") = ",D29,";")</f>
+        <v>TX1(28,0) = 0.456;</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(28,1) = 0;</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(28,1) = 131.25;</v>
+        <v>TX1(28,2) = 37.5;</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(29,0) = 0;</v>
-      </c>
-      <c r="C30">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>135.9375</v>
-      </c>
-      <c r="H30" t="str">
+        <v>75</v>
+      </c>
+      <c r="I30" t="str">
+        <f>_xlfn.CONCAT("TX1(",B30,",0",") = ",D30,";")</f>
+        <v>TX1(29,0) = 0.456;</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(29,1) = 0;</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(29,1) = 135.9375;</v>
+        <v>TX1(29,2) = 75;</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(30,0) = 0;</v>
-      </c>
-      <c r="C31">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>140.625</v>
-      </c>
-      <c r="H31" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I31" t="str">
+        <f>_xlfn.CONCAT("TX1(",B31,",0",") = ",D31,";")</f>
+        <v>TX1(30,0) = 0.456;</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(30,1) = 0;</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(30,1) = 140.625;</v>
+        <v>TX1(30,2) = 112.5;</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(31,0) = 0;</v>
-      </c>
-      <c r="C32">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>31</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>145.3125</v>
-      </c>
-      <c r="H32" t="str">
+        <v>150</v>
+      </c>
+      <c r="I32" t="str">
+        <f>_xlfn.CONCAT("TX1(",B32,",0",") = ",D32,";")</f>
+        <v>TX1(31,0) = 0.456;</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(31,1) = 0;</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(31,1) = 145.3125;</v>
+        <v>TX1(31,2) = 150;</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(32,0) = 0;</v>
-      </c>
-      <c r="C33">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>150</v>
-      </c>
-      <c r="H33" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I33" t="str">
+        <f>_xlfn.CONCAT("TX1(",B33,",0",") = ",D33,";")</f>
+        <v>TX1(32,0) = 0.456;</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(32,1) = 0;</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(32,1) = 150;</v>
+        <v>TX1(32,2) = 187.5;</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(33,0) = 0;</v>
-      </c>
-      <c r="C34">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>154.6875</v>
-      </c>
-      <c r="H34" t="str">
+        <v>225</v>
+      </c>
+      <c r="I34" t="str">
+        <f>_xlfn.CONCAT("TX1(",B34,",0",") = ",D34,";")</f>
+        <v>TX1(33,0) = 0.456;</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(33,1) = 0;</v>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(33,1) = 154.6875;</v>
+        <v>TX1(33,2) = 225;</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(34,0) = 0;</v>
-      </c>
-      <c r="C35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>159.375</v>
-      </c>
-      <c r="H35" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I35" t="str">
+        <f>_xlfn.CONCAT("TX1(",B35,",0",") = ",D35,";")</f>
+        <v>TX1(34,0) = 0.456;</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(34,1) = 0;</v>
+      </c>
+      <c r="K35" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(34,1) = 159.375;</v>
+        <v>TX1(34,2) = 262.5;</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(35,0) = 0;</v>
-      </c>
-      <c r="C36">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>164.0625</v>
-      </c>
-      <c r="H36" t="str">
+        <v>300</v>
+      </c>
+      <c r="I36" t="str">
+        <f>_xlfn.CONCAT("TX1(",B36,",0",") = ",D36,";")</f>
+        <v>TX1(35,0) = 0.456;</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(35,1) = 0;</v>
+      </c>
+      <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(35,1) = 164.0625;</v>
+        <v>TX1(35,2) = 300;</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(36,0) = 0;</v>
-      </c>
-      <c r="C37">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F37">
-        <v>168.75</v>
-      </c>
-      <c r="H37" t="str">
+        <v>0</v>
+      </c>
+      <c r="I37" t="str">
+        <f>_xlfn.CONCAT("TX1(",B37,",0",") = ",D37,";")</f>
+        <v>TX1(36,0) = 0.456;</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(36,1) = 150;</v>
+      </c>
+      <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(36,1) = 168.75;</v>
+        <v>TX1(36,2) = 0;</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(37,0) = 0;</v>
-      </c>
-      <c r="C38">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F38">
-        <v>173.4375</v>
-      </c>
-      <c r="H38" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I38" t="str">
+        <f>_xlfn.CONCAT("TX1(",B38,",0",") = ",D38,";")</f>
+        <v>TX1(37,0) = 0.456;</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(37,1) = 150;</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(37,1) = 173.4375;</v>
+        <v>TX1(37,2) = 37.5;</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(38,0) = 0;</v>
-      </c>
-      <c r="C39">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F39">
-        <v>178.125</v>
-      </c>
-      <c r="H39" t="str">
+        <v>75</v>
+      </c>
+      <c r="I39" t="str">
+        <f>_xlfn.CONCAT("TX1(",B39,",0",") = ",D39,";")</f>
+        <v>TX1(38,0) = 0.456;</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(38,1) = 150;</v>
+      </c>
+      <c r="K39" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(38,1) = 178.125;</v>
+        <v>TX1(38,2) = 75;</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(39,0) = 0;</v>
-      </c>
-      <c r="C40">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
-        <v>39</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F40">
-        <v>182.8125</v>
-      </c>
-      <c r="H40" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I40" t="str">
+        <f>_xlfn.CONCAT("TX1(",B40,",0",") = ",D40,";")</f>
+        <v>TX1(39,0) = 0.456;</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(39,1) = 150;</v>
+      </c>
+      <c r="K40" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(39,1) = 182.8125;</v>
+        <v>TX1(39,2) = 112.5;</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(40,0) = 0;</v>
-      </c>
-      <c r="C41">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F41">
-        <v>187.5</v>
-      </c>
-      <c r="H41" t="str">
+        <v>150</v>
+      </c>
+      <c r="I41" t="str">
+        <f>_xlfn.CONCAT("TX1(",B41,",0",") = ",D41,";")</f>
+        <v>TX1(40,0) = 0.456;</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(40,1) = 150;</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(40,1) = 187.5;</v>
+        <v>TX1(40,2) = 150;</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(41,0) = 0;</v>
-      </c>
-      <c r="C42">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F42">
-        <v>192.1875</v>
-      </c>
-      <c r="H42" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I42" t="str">
+        <f>_xlfn.CONCAT("TX1(",B42,",0",") = ",D42,";")</f>
+        <v>TX1(41,0) = 0.456;</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(41,1) = 150;</v>
+      </c>
+      <c r="K42" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(41,1) = 192.1875;</v>
+        <v>TX1(41,2) = 187.5;</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(42,0) = 0;</v>
-      </c>
-      <c r="C43">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F43">
-        <v>196.875</v>
-      </c>
-      <c r="H43" t="str">
+        <v>225</v>
+      </c>
+      <c r="I43" t="str">
+        <f>_xlfn.CONCAT("TX1(",B43,",0",") = ",D43,";")</f>
+        <v>TX1(42,0) = 0.456;</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(42,1) = 150;</v>
+      </c>
+      <c r="K43" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(42,1) = 196.875;</v>
+        <v>TX1(42,2) = 225;</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(43,0) = 0;</v>
-      </c>
-      <c r="C44">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F44">
-        <v>201.5625</v>
-      </c>
-      <c r="H44" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I44" t="str">
+        <f>_xlfn.CONCAT("TX1(",B44,",0",") = ",D44,";")</f>
+        <v>TX1(43,0) = 0.456;</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(43,1) = 150;</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(43,1) = 201.5625;</v>
+        <v>TX1(43,2) = 262.5;</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(44,0) = 0;</v>
-      </c>
-      <c r="C45">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F45">
-        <v>206.25</v>
-      </c>
-      <c r="H45" t="str">
+        <v>300</v>
+      </c>
+      <c r="I45" t="str">
+        <f>_xlfn.CONCAT("TX1(",B45,",0",") = ",D45,";")</f>
+        <v>TX1(44,0) = 0.456;</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(44,1) = 150;</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(44,1) = 206.25;</v>
+        <v>TX1(44,2) = 300;</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(45,0) = 0;</v>
-      </c>
-      <c r="C46">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F46">
-        <v>210.9375</v>
-      </c>
-      <c r="H46" t="str">
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <f>_xlfn.CONCAT("TX1(",B46,",0",") = ",D46,";")</f>
+        <v>TX1(45,0) = 0.456;</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(45,1) = 300;</v>
+      </c>
+      <c r="K46" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(45,1) = 210.9375;</v>
+        <v>TX1(45,2) = 0;</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(46,0) = 0;</v>
-      </c>
-      <c r="C47">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47">
-        <v>215.625</v>
-      </c>
-      <c r="H47" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I47" t="str">
+        <f>_xlfn.CONCAT("TX1(",B47,",0",") = ",D47,";")</f>
+        <v>TX1(46,0) = 0.456;</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(46,1) = 300;</v>
+      </c>
+      <c r="K47" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(46,1) = 215.625;</v>
+        <v>TX1(46,2) = 37.5;</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(47,0) = 0;</v>
-      </c>
-      <c r="C48">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
-        <v>47</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F48">
-        <v>220.3125</v>
-      </c>
-      <c r="H48" t="str">
+        <v>75</v>
+      </c>
+      <c r="I48" t="str">
+        <f>_xlfn.CONCAT("TX1(",B48,",0",") = ",D48,";")</f>
+        <v>TX1(47,0) = 0.456;</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(47,1) = 300;</v>
+      </c>
+      <c r="K48" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(47,1) = 220.3125;</v>
+        <v>TX1(47,2) = 75;</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(48,0) = 0;</v>
-      </c>
-      <c r="C49">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F49">
-        <v>225</v>
-      </c>
-      <c r="H49" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I49" t="str">
+        <f>_xlfn.CONCAT("TX1(",B49,",0",") = ",D49,";")</f>
+        <v>TX1(48,0) = 0.456;</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(48,1) = 300;</v>
+      </c>
+      <c r="K49" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(48,1) = 225;</v>
+        <v>TX1(48,2) = 112.5;</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(49,0) = 0;</v>
-      </c>
-      <c r="C50">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F50">
-        <v>229.6875</v>
-      </c>
-      <c r="H50" t="str">
+        <v>150</v>
+      </c>
+      <c r="I50" t="str">
+        <f>_xlfn.CONCAT("TX1(",B50,",0",") = ",D50,";")</f>
+        <v>TX1(49,0) = 0.456;</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(49,1) = 300;</v>
+      </c>
+      <c r="K50" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(49,1) = 229.6875;</v>
+        <v>TX1(49,2) = 150;</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(50,0) = 0;</v>
-      </c>
-      <c r="C51">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F51">
-        <v>234.375</v>
-      </c>
-      <c r="H51" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I51" t="str">
+        <f>_xlfn.CONCAT("TX1(",B51,",0",") = ",D51,";")</f>
+        <v>TX1(50,0) = 0.456;</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(50,1) = 300;</v>
+      </c>
+      <c r="K51" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(50,1) = 234.375;</v>
+        <v>TX1(50,2) = 187.5;</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(51,0) = 0;</v>
-      </c>
-      <c r="C52">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F52">
-        <v>239.0625</v>
-      </c>
-      <c r="H52" t="str">
+        <v>225</v>
+      </c>
+      <c r="I52" t="str">
+        <f>_xlfn.CONCAT("TX1(",B52,",0",") = ",D52,";")</f>
+        <v>TX1(51,0) = 0.456;</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(51,1) = 300;</v>
+      </c>
+      <c r="K52" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(51,1) = 239.0625;</v>
+        <v>TX1(51,2) = 225;</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(52,0) = 0;</v>
-      </c>
-      <c r="C53">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F53">
-        <v>243.75</v>
-      </c>
-      <c r="H53" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I53" t="str">
+        <f>_xlfn.CONCAT("TX1(",B53,",0",") = ",D53,";")</f>
+        <v>TX1(52,0) = 0.456;</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(52,1) = 300;</v>
+      </c>
+      <c r="K53" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(52,1) = 243.75;</v>
+        <v>TX1(52,2) = 262.5;</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(53,0) = 0;</v>
-      </c>
-      <c r="C54">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
-        <v>53</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F54">
-        <v>248.4375</v>
-      </c>
-      <c r="H54" t="str">
+        <v>300</v>
+      </c>
+      <c r="I54" t="str">
+        <f>_xlfn.CONCAT("TX1(",B54,",0",") = ",D54,";")</f>
+        <v>TX1(53,0) = 0.456;</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(53,1) = 300;</v>
+      </c>
+      <c r="K54" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(53,1) = 248.4375;</v>
+        <v>TX1(53,2) = 300;</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(54,0) = 0;</v>
-      </c>
-      <c r="C55">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>253.125</v>
-      </c>
-      <c r="H55" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" t="str">
+        <f>_xlfn.CONCAT("TX1(",B55,",0",") = ",D55,";")</f>
+        <v>TX1(54,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(54,1) = 0;</v>
+      </c>
+      <c r="K55" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(54,1) = 253.125;</v>
+        <v>TX1(54,2) = 0;</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(55,0) = 0;</v>
-      </c>
-      <c r="C56">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>257.8125</v>
-      </c>
-      <c r="H56" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I56" t="str">
+        <f>_xlfn.CONCAT("TX1(",B56,",0",") = ",D56,";")</f>
+        <v>TX1(55,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(55,1) = 0;</v>
+      </c>
+      <c r="K56" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(55,1) = 257.8125;</v>
+        <v>TX1(55,2) = 37.5;</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(56,0) = 0;</v>
-      </c>
-      <c r="C57">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
-        <v>56</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>262.5</v>
-      </c>
-      <c r="H57" t="str">
+        <v>75</v>
+      </c>
+      <c r="I57" t="str">
+        <f>_xlfn.CONCAT("TX1(",B57,",0",") = ",D57,";")</f>
+        <v>TX1(56,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(56,1) = 0;</v>
+      </c>
+      <c r="K57" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(56,1) = 262.5;</v>
+        <v>TX1(56,2) = 75;</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(57,0) = 0;</v>
-      </c>
-      <c r="C58">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>267.1875</v>
-      </c>
-      <c r="H58" t="str">
+        <v>112.5</v>
+      </c>
+      <c r="I58" t="str">
+        <f>_xlfn.CONCAT("TX1(",B58,",0",") = ",D58,";")</f>
+        <v>TX1(57,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(57,1) = 0;</v>
+      </c>
+      <c r="K58" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(57,1) = 267.1875;</v>
+        <v>TX1(57,2) = 112.5;</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(58,0) = 0;</v>
-      </c>
-      <c r="C59">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>271.875</v>
-      </c>
-      <c r="H59" t="str">
+        <v>150</v>
+      </c>
+      <c r="I59" t="str">
+        <f>_xlfn.CONCAT("TX1(",B59,",0",") = ",D59,";")</f>
+        <v>TX1(58,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(58,1) = 0;</v>
+      </c>
+      <c r="K59" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(58,1) = 271.875;</v>
+        <v>TX1(58,2) = 150;</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(59,0) = 0;</v>
-      </c>
-      <c r="C60">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>276.5625</v>
-      </c>
-      <c r="H60" t="str">
+        <v>187.5</v>
+      </c>
+      <c r="I60" t="str">
+        <f>_xlfn.CONCAT("TX1(",B60,",0",") = ",D60,";")</f>
+        <v>TX1(59,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(59,1) = 0;</v>
+      </c>
+      <c r="K60" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(59,1) = 276.5625;</v>
+        <v>TX1(59,2) = 187.5;</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(60,0) = 0;</v>
-      </c>
-      <c r="C61">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>281.25</v>
-      </c>
-      <c r="H61" t="str">
+        <v>225</v>
+      </c>
+      <c r="I61" t="str">
+        <f>_xlfn.CONCAT("TX1(",B61,",0",") = ",D61,";")</f>
+        <v>TX1(60,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(60,1) = 0;</v>
+      </c>
+      <c r="K61" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(60,1) = 281.25;</v>
+        <v>TX1(60,2) = 225;</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(61,0) = 0;</v>
-      </c>
-      <c r="C62">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
-        <v>61</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>285.9375</v>
-      </c>
-      <c r="H62" t="str">
+        <v>262.5</v>
+      </c>
+      <c r="I62" t="str">
+        <f>_xlfn.CONCAT("TX1(",B62,",0",") = ",D62,";")</f>
+        <v>TX1(61,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(61,1) = 0;</v>
+      </c>
+      <c r="K62" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(61,1) = 285.9375;</v>
+        <v>TX1(61,2) = 262.5;</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(62,0) = 0;</v>
-      </c>
-      <c r="C63">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
-        <v>62</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>290.625</v>
-      </c>
-      <c r="H63" t="str">
+        <v>300</v>
+      </c>
+      <c r="I63" t="str">
+        <f>_xlfn.CONCAT("TX1(",B63,",0",") = ",D63,";")</f>
+        <v>TX1(62,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(62,1) = 0;</v>
+      </c>
+      <c r="K63" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(62,1) = 290.625;</v>
+        <v>TX1(62,2) = 300;</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(63,0) = 0;</v>
-      </c>
-      <c r="C64">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
-        <v>63</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F64">
-        <v>295.3125</v>
-      </c>
-      <c r="H64" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
+        <f>_xlfn.CONCAT("TX1(",B64,",0",") = ",D64,";")</f>
+        <v>TX1(63,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(63,1) = 150;</v>
+      </c>
+      <c r="K64" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(63,1) = 295.3125;</v>
+        <v>TX1(63,2) = 0;</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>TX1(64,0) = 0;</v>
-      </c>
-      <c r="C65">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
-        <v>64</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F65">
-        <v>300</v>
-      </c>
-      <c r="H65" t="str">
+        <v>37.5</v>
+      </c>
+      <c r="I65" t="str">
+        <f>_xlfn.CONCAT("TX1(",B65,",0",") = ",D65,";")</f>
+        <v>TX1(64,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>TX1(64,1) = 150;</v>
+      </c>
+      <c r="K65" t="str">
         <f t="shared" si="1"/>
-        <v>TX1(64,1) = 300;</v>
+        <v>TX1(64,2) = 37.5;</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="4">_xlfn.CONCAT("TX1(",C66,",0",") = ",E66,";")</f>
-        <v>TX1(65,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C66">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D66">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E66">
+        <v>150</v>
+      </c>
+      <c r="F66">
+        <v>75</v>
+      </c>
+      <c r="I66" t="str">
+        <f>_xlfn.CONCAT("TX1(",B66,",0",") = ",D66,";")</f>
+        <v>TX1(65,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" ref="J66:J129" si="3">_xlfn.CONCAT("TX1(",B66,",1",") = ",E66,";")</f>
+        <v>TX1(65,1) = 150;</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K129" si="4">_xlfn.CONCAT("TX1(",B66,",2",") = ",F66,";")</f>
+        <v>TX1(65,2) = 75;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="5">B66+1</f>
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E67">
+        <v>150</v>
+      </c>
+      <c r="F67">
+        <v>112.5</v>
+      </c>
+      <c r="I67" t="str">
+        <f>_xlfn.CONCAT("TX1(",B67,",0",") = ",D67,";")</f>
+        <v>TX1(66,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J67" t="str">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="E66">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" ref="H66:H129" si="5">_xlfn.CONCAT("TX1(",C66,",1",") = ",F66,";")</f>
-        <v>TX1(65,1) = 0;</v>
+        <v>TX1(66,1) = 150;</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(66,2) = 112.5;</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="str">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E68">
+        <v>150</v>
+      </c>
+      <c r="F68">
+        <v>150</v>
+      </c>
+      <c r="I68" t="str">
+        <f>_xlfn.CONCAT("TX1(",B68,",0",") = ",D68,";")</f>
+        <v>TX1(67,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(67,1) = 150;</v>
+      </c>
+      <c r="K68" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(66,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C130" si="6">C66+1</f>
-        <v>66</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D130" si="7">D66+1</f>
-        <v>66</v>
-      </c>
-      <c r="E67">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F67">
-        <v>4.6875</v>
-      </c>
-      <c r="H67" t="str">
+        <v>TX1(67,2) = 150;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69">
         <f t="shared" si="5"/>
-        <v>TX1(66,1) = 4.6875;</v>
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E69">
+        <v>150</v>
+      </c>
+      <c r="F69">
+        <v>187.5</v>
+      </c>
+      <c r="I69" t="str">
+        <f>_xlfn.CONCAT("TX1(",B69,",0",") = ",D69,";")</f>
+        <v>TX1(68,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(68,1) = 150;</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(68,2) = 187.5;</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="str">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E70">
+        <v>150</v>
+      </c>
+      <c r="F70">
+        <v>225</v>
+      </c>
+      <c r="I70" t="str">
+        <f>_xlfn.CONCAT("TX1(",B70,",0",") = ",D70,";")</f>
+        <v>TX1(69,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(69,1) = 150;</v>
+      </c>
+      <c r="K70" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(67,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="E68">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F68">
-        <v>9.375</v>
-      </c>
-      <c r="H68" t="str">
+        <v>TX1(69,2) = 225;</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71">
         <f t="shared" si="5"/>
-        <v>TX1(67,1) = 9.375;</v>
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E71">
+        <v>150</v>
+      </c>
+      <c r="F71">
+        <v>262.5</v>
+      </c>
+      <c r="I71" t="str">
+        <f>_xlfn.CONCAT("TX1(",B71,",0",") = ",D71,";")</f>
+        <v>TX1(70,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(70,1) = 150;</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(70,2) = 262.5;</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="str">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E72">
+        <v>150</v>
+      </c>
+      <c r="F72">
+        <v>300</v>
+      </c>
+      <c r="I72" t="str">
+        <f>_xlfn.CONCAT("TX1(",B72,",0",") = ",D72,";")</f>
+        <v>TX1(71,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(71,1) = 150;</v>
+      </c>
+      <c r="K72" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(68,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="7"/>
-        <v>68</v>
-      </c>
-      <c r="E69">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F69">
-        <v>14.0625</v>
-      </c>
-      <c r="H69" t="str">
+        <v>TX1(71,2) = 300;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
         <f t="shared" si="5"/>
-        <v>TX1(68,1) = 14.0625;</v>
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E73">
+        <v>300</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
+        <f>_xlfn.CONCAT("TX1(",B73,",0",") = ",D73,";")</f>
+        <v>TX1(72,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(72,1) = 300;</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(72,2) = 0;</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(69,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="E70">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F70">
-        <v>18.75</v>
-      </c>
-      <c r="H70" t="str">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
         <f t="shared" si="5"/>
-        <v>TX1(69,1) = 18.75;</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(70,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="6"/>
-        <v>70</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-      <c r="E71">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F71">
-        <v>23.4375</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(70,1) = 23.4375;</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(71,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="6"/>
-        <v>71</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="E72">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F72">
-        <v>28.125</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(71,1) = 28.125;</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(72,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="E73">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F73">
-        <v>32.8125</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(72,1) = 32.8125;</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(73,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="D74">
-        <f t="shared" si="7"/>
-        <v>73</v>
+        <v>0.91199999999999903</v>
       </c>
       <c r="E74">
-        <v>0.432499999999999</v>
+        <v>300</v>
       </c>
       <c r="F74">
         <v>37.5</v>
       </c>
-      <c r="H74" t="str">
+      <c r="I74" t="str">
+        <f>_xlfn.CONCAT("TX1(",B74,",0",") = ",D74,";")</f>
+        <v>TX1(73,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(73,1) = 300;</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(73,2) = 37.5;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
         <f t="shared" si="5"/>
-        <v>TX1(73,1) = 37.5;</v>
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E75">
+        <v>300</v>
+      </c>
+      <c r="F75">
+        <v>75</v>
+      </c>
+      <c r="I75" t="str">
+        <f>_xlfn.CONCAT("TX1(",B75,",0",") = ",D75,";")</f>
+        <v>TX1(74,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(74,1) = 300;</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(74,2) = 75;</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="str">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E76">
+        <v>300</v>
+      </c>
+      <c r="F76">
+        <v>112.5</v>
+      </c>
+      <c r="I76" t="str">
+        <f>_xlfn.CONCAT("TX1(",B76,",0",") = ",D76,";")</f>
+        <v>TX1(75,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(75,1) = 300;</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="4"/>
-        <v>TX1(74,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C75">
+        <v>TX1(75,2) = 112.5;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E77">
+        <v>300</v>
+      </c>
+      <c r="F77">
+        <v>150</v>
+      </c>
+      <c r="I77" t="str">
+        <f>_xlfn.CONCAT("TX1(",B77,",0",") = ",D77,";")</f>
+        <v>TX1(76,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(76,1) = 300;</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(76,2) = 150;</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E78">
+        <v>300</v>
+      </c>
+      <c r="F78">
+        <v>187.5</v>
+      </c>
+      <c r="I78" t="str">
+        <f>_xlfn.CONCAT("TX1(",B78,",0",") = ",D78,";")</f>
+        <v>TX1(77,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(77,1) = 300;</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(77,2) = 187.5;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E79">
+        <v>300</v>
+      </c>
+      <c r="F79">
+        <v>225</v>
+      </c>
+      <c r="I79" t="str">
+        <f>_xlfn.CONCAT("TX1(",B79,",0",") = ",D79,";")</f>
+        <v>TX1(78,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(78,1) = 300;</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(78,2) = 225;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E80">
+        <v>300</v>
+      </c>
+      <c r="F80">
+        <v>262.5</v>
+      </c>
+      <c r="I80" t="str">
+        <f>_xlfn.CONCAT("TX1(",B80,",0",") = ",D80,";")</f>
+        <v>TX1(79,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(79,1) = 300;</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(79,2) = 262.5;</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>0.91199999999999903</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="F81">
+        <v>300</v>
+      </c>
+      <c r="I81" t="str">
+        <f>_xlfn.CONCAT("TX1(",B81,",0",") = ",D81,";")</f>
+        <v>TX1(80,0) = 0.911999999999999;</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(80,1) = 300;</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(80,2) = 300;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="I82" t="str">
+        <f>_xlfn.CONCAT("TX1(",B82,",0",") = ",D82,";")</f>
+        <v>TX1(81,0) = ;</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(81,1) = ;</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(81,2) = ;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="I83" t="str">
+        <f>_xlfn.CONCAT("TX1(",B83,",0",") = ",D83,";")</f>
+        <v>TX1(82,0) = ;</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(82,1) = ;</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(82,2) = ;</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="I84" t="str">
+        <f>_xlfn.CONCAT("TX1(",B84,",0",") = ",D84,";")</f>
+        <v>TX1(83,0) = ;</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(83,1) = ;</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(83,2) = ;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="I85" t="str">
+        <f>_xlfn.CONCAT("TX1(",B85,",0",") = ",D85,";")</f>
+        <v>TX1(84,0) = ;</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(84,1) = ;</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(84,2) = ;</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="I86" t="str">
+        <f>_xlfn.CONCAT("TX1(",B86,",0",") = ",D86,";")</f>
+        <v>TX1(85,0) = ;</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(85,1) = ;</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(85,2) = ;</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="I87" t="str">
+        <f>_xlfn.CONCAT("TX1(",B87,",0",") = ",D87,";")</f>
+        <v>TX1(86,0) = ;</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(86,1) = ;</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(86,2) = ;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="I88" t="str">
+        <f>_xlfn.CONCAT("TX1(",B88,",0",") = ",D88,";")</f>
+        <v>TX1(87,0) = ;</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(87,1) = ;</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(87,2) = ;</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="I89" t="str">
+        <f>_xlfn.CONCAT("TX1(",B89,",0",") = ",D89,";")</f>
+        <v>TX1(88,0) = ;</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(88,1) = ;</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(88,2) = ;</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="I90" t="str">
+        <f>_xlfn.CONCAT("TX1(",B90,",0",") = ",D90,";")</f>
+        <v>TX1(89,0) = ;</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(89,1) = ;</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(89,2) = ;</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="I91" t="str">
+        <f>_xlfn.CONCAT("TX1(",B91,",0",") = ",D91,";")</f>
+        <v>TX1(90,0) = ;</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(90,1) = ;</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(90,2) = ;</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="I92" t="str">
+        <f>_xlfn.CONCAT("TX1(",B92,",0",") = ",D92,";")</f>
+        <v>TX1(91,0) = ;</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(91,1) = ;</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(91,2) = ;</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="I93" t="str">
+        <f>_xlfn.CONCAT("TX1(",B93,",0",") = ",D93,";")</f>
+        <v>TX1(92,0) = ;</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(92,1) = ;</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(92,2) = ;</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="I94" t="str">
+        <f>_xlfn.CONCAT("TX1(",B94,",0",") = ",D94,";")</f>
+        <v>TX1(93,0) = ;</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(93,1) = ;</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(93,2) = ;</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="I95" t="str">
+        <f>_xlfn.CONCAT("TX1(",B95,",0",") = ",D95,";")</f>
+        <v>TX1(94,0) = ;</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(94,1) = ;</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(94,2) = ;</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="I96" t="str">
+        <f>_xlfn.CONCAT("TX1(",B96,",0",") = ",D96,";")</f>
+        <v>TX1(95,0) = ;</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(95,1) = ;</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(95,2) = ;</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="I97" t="str">
+        <f>_xlfn.CONCAT("TX1(",B97,",0",") = ",D97,";")</f>
+        <v>TX1(96,0) = ;</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(96,1) = ;</v>
+      </c>
+      <c r="K97" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(96,2) = ;</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="I98" t="str">
+        <f>_xlfn.CONCAT("TX1(",B98,",0",") = ",D98,";")</f>
+        <v>TX1(97,0) = ;</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(97,1) = ;</v>
+      </c>
+      <c r="K98" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(97,2) = ;</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="I99" t="str">
+        <f>_xlfn.CONCAT("TX1(",B99,",0",") = ",D99,";")</f>
+        <v>TX1(98,0) = ;</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(98,1) = ;</v>
+      </c>
+      <c r="K99" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(98,2) = ;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="I100" t="str">
+        <f>_xlfn.CONCAT("TX1(",B100,",0",") = ",D100,";")</f>
+        <v>TX1(99,0) = ;</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(99,1) = ;</v>
+      </c>
+      <c r="K100" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(99,2) = ;</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I101" t="str">
+        <f>_xlfn.CONCAT("TX1(",B101,",0",") = ",D101,";")</f>
+        <v>TX1(100,0) = ;</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(100,1) = ;</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(100,2) = ;</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="I102" t="str">
+        <f>_xlfn.CONCAT("TX1(",B102,",0",") = ",D102,";")</f>
+        <v>TX1(101,0) = ;</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(101,1) = ;</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(101,2) = ;</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="I103" t="str">
+        <f>_xlfn.CONCAT("TX1(",B103,",0",") = ",D103,";")</f>
+        <v>TX1(102,0) = ;</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(102,1) = ;</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(102,2) = ;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="I104" t="str">
+        <f>_xlfn.CONCAT("TX1(",B104,",0",") = ",D104,";")</f>
+        <v>TX1(103,0) = ;</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(103,1) = ;</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(103,2) = ;</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="I105" t="str">
+        <f>_xlfn.CONCAT("TX1(",B105,",0",") = ",D105,";")</f>
+        <v>TX1(104,0) = ;</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(104,1) = ;</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(104,2) = ;</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="I106" t="str">
+        <f>_xlfn.CONCAT("TX1(",B106,",0",") = ",D106,";")</f>
+        <v>TX1(105,0) = ;</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(105,1) = ;</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(105,2) = ;</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="I107" t="str">
+        <f>_xlfn.CONCAT("TX1(",B107,",0",") = ",D107,";")</f>
+        <v>TX1(106,0) = ;</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(106,1) = ;</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(106,2) = ;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="I108" t="str">
+        <f>_xlfn.CONCAT("TX1(",B108,",0",") = ",D108,";")</f>
+        <v>TX1(107,0) = ;</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(107,1) = ;</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(107,2) = ;</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="I109" t="str">
+        <f>_xlfn.CONCAT("TX1(",B109,",0",") = ",D109,";")</f>
+        <v>TX1(108,0) = ;</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(108,1) = ;</v>
+      </c>
+      <c r="K109" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(108,2) = ;</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="5"/>
+        <v>109</v>
+      </c>
+      <c r="I110" t="str">
+        <f>_xlfn.CONCAT("TX1(",B110,",0",") = ",D110,";")</f>
+        <v>TX1(109,0) = ;</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(109,1) = ;</v>
+      </c>
+      <c r="K110" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(109,2) = ;</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="I111" t="str">
+        <f>_xlfn.CONCAT("TX1(",B111,",0",") = ",D111,";")</f>
+        <v>TX1(110,0) = ;</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(110,1) = ;</v>
+      </c>
+      <c r="K111" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(110,2) = ;</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="I112" t="str">
+        <f>_xlfn.CONCAT("TX1(",B112,",0",") = ",D112,";")</f>
+        <v>TX1(111,0) = ;</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(111,1) = ;</v>
+      </c>
+      <c r="K112" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(111,2) = ;</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="I113" t="str">
+        <f>_xlfn.CONCAT("TX1(",B113,",0",") = ",D113,";")</f>
+        <v>TX1(112,0) = ;</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(112,1) = ;</v>
+      </c>
+      <c r="K113" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(112,2) = ;</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="5"/>
+        <v>113</v>
+      </c>
+      <c r="I114" t="str">
+        <f>_xlfn.CONCAT("TX1(",B114,",0",") = ",D114,";")</f>
+        <v>TX1(113,0) = ;</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(113,1) = ;</v>
+      </c>
+      <c r="K114" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(113,2) = ;</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="I115" t="str">
+        <f>_xlfn.CONCAT("TX1(",B115,",0",") = ",D115,";")</f>
+        <v>TX1(114,0) = ;</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(114,1) = ;</v>
+      </c>
+      <c r="K115" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(114,2) = ;</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="I116" t="str">
+        <f>_xlfn.CONCAT("TX1(",B116,",0",") = ",D116,";")</f>
+        <v>TX1(115,0) = ;</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(115,1) = ;</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(115,2) = ;</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="I117" t="str">
+        <f>_xlfn.CONCAT("TX1(",B117,",0",") = ",D117,";")</f>
+        <v>TX1(116,0) = ;</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(116,1) = ;</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(116,2) = ;</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="I118" t="str">
+        <f>_xlfn.CONCAT("TX1(",B118,",0",") = ",D118,";")</f>
+        <v>TX1(117,0) = ;</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(117,1) = ;</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(117,2) = ;</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="I119" t="str">
+        <f>_xlfn.CONCAT("TX1(",B119,",0",") = ",D119,";")</f>
+        <v>TX1(118,0) = ;</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(118,1) = ;</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(118,2) = ;</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="I120" t="str">
+        <f>_xlfn.CONCAT("TX1(",B120,",0",") = ",D120,";")</f>
+        <v>TX1(119,0) = ;</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(119,1) = ;</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(119,2) = ;</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="I121" t="str">
+        <f>_xlfn.CONCAT("TX1(",B121,",0",") = ",D121,";")</f>
+        <v>TX1(120,0) = ;</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(120,1) = ;</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(120,2) = ;</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="I122" t="str">
+        <f>_xlfn.CONCAT("TX1(",B122,",0",") = ",D122,";")</f>
+        <v>TX1(121,0) = ;</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(121,1) = ;</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(121,2) = ;</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="I123" t="str">
+        <f>_xlfn.CONCAT("TX1(",B123,",0",") = ",D123,";")</f>
+        <v>TX1(122,0) = ;</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(122,1) = ;</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(122,2) = ;</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="I124" t="str">
+        <f>_xlfn.CONCAT("TX1(",B124,",0",") = ",D124,";")</f>
+        <v>TX1(123,0) = ;</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(123,1) = ;</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(123,2) = ;</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="I125" t="str">
+        <f>_xlfn.CONCAT("TX1(",B125,",0",") = ",D125,";")</f>
+        <v>TX1(124,0) = ;</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(124,1) = ;</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(124,2) = ;</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="I126" t="str">
+        <f>_xlfn.CONCAT("TX1(",B126,",0",") = ",D126,";")</f>
+        <v>TX1(125,0) = ;</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(125,1) = ;</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(125,2) = ;</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="I127" t="str">
+        <f>_xlfn.CONCAT("TX1(",B127,",0",") = ",D127,";")</f>
+        <v>TX1(126,0) = ;</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(126,1) = ;</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(126,2) = ;</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="I128" t="str">
+        <f>_xlfn.CONCAT("TX1(",B128,",0",") = ",D128,";")</f>
+        <v>TX1(127,0) = ;</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(127,1) = ;</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(127,2) = ;</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="I129" t="str">
+        <f>_xlfn.CONCAT("TX1(",B129,",0",") = ",D129,";")</f>
+        <v>TX1(128,0) = ;</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="3"/>
+        <v>TX1(128,1) = ;</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="4"/>
+        <v>TX1(128,2) = ;</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="I130" t="str">
+        <f>_xlfn.CONCAT("TX1(",B130,",0",") = ",D130,";")</f>
+        <v>TX1(129,0) = ;</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" ref="J130:J193" si="6">_xlfn.CONCAT("TX1(",B130,",1",") = ",E130,";")</f>
+        <v>TX1(129,1) = ;</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" ref="K130:K193" si="7">_xlfn.CONCAT("TX1(",B130,",2",") = ",F130,";")</f>
+        <v>TX1(129,2) = ;</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <f t="shared" ref="B131:B194" si="8">B130+1</f>
+        <v>130</v>
+      </c>
+      <c r="I131" t="str">
+        <f>_xlfn.CONCAT("TX1(",B131,",0",") = ",D131,";")</f>
+        <v>TX1(130,0) = ;</v>
+      </c>
+      <c r="J131" t="str">
         <f t="shared" si="6"/>
-        <v>74</v>
-      </c>
-      <c r="D75">
+        <v>TX1(130,1) = ;</v>
+      </c>
+      <c r="K131" t="str">
         <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-      <c r="E75">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F75">
-        <v>42.1875</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(74,1) = 42.1875;</v>
+        <v>TX1(130,2) = ;</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(75,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C76">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <f t="shared" si="8"/>
+        <v>131</v>
+      </c>
+      <c r="I132" t="str">
+        <f>_xlfn.CONCAT("TX1(",B132,",0",") = ",D132,";")</f>
+        <v>TX1(131,0) = ;</v>
+      </c>
+      <c r="J132" t="str">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="D76">
+        <v>TX1(131,1) = ;</v>
+      </c>
+      <c r="K132" t="str">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="E76">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F76">
-        <v>46.875</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(75,1) = 46.875;</v>
+        <v>TX1(131,2) = ;</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(76,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C77">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <f t="shared" si="8"/>
+        <v>132</v>
+      </c>
+      <c r="I133" t="str">
+        <f>_xlfn.CONCAT("TX1(",B133,",0",") = ",D133,";")</f>
+        <v>TX1(132,0) = ;</v>
+      </c>
+      <c r="J133" t="str">
         <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="D77">
+        <v>TX1(132,1) = ;</v>
+      </c>
+      <c r="K133" t="str">
         <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-      <c r="E77">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F77">
-        <v>51.5625</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(76,1) = 51.5625;</v>
+        <v>TX1(132,2) = ;</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(77,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C78">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="I134" t="str">
+        <f>_xlfn.CONCAT("TX1(",B134,",0",") = ",D134,";")</f>
+        <v>TX1(133,0) = ;</v>
+      </c>
+      <c r="J134" t="str">
         <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="D78">
+        <v>TX1(133,1) = ;</v>
+      </c>
+      <c r="K134" t="str">
         <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="E78">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F78">
-        <v>56.25</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(77,1) = 56.25;</v>
+        <v>TX1(133,2) = ;</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(78,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C79">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="I135" t="str">
+        <f>_xlfn.CONCAT("TX1(",B135,",0",") = ",D135,";")</f>
+        <v>TX1(134,0) = ;</v>
+      </c>
+      <c r="J135" t="str">
         <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="D79">
+        <v>TX1(134,1) = ;</v>
+      </c>
+      <c r="K135" t="str">
         <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="E79">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F79">
-        <v>60.9375</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(78,1) = 60.9375;</v>
+        <v>TX1(134,2) = ;</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(79,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C80">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <f t="shared" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="I136" t="str">
+        <f>_xlfn.CONCAT("TX1(",B136,",0",") = ",D136,";")</f>
+        <v>TX1(135,0) = ;</v>
+      </c>
+      <c r="J136" t="str">
         <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="D80">
+        <v>TX1(135,1) = ;</v>
+      </c>
+      <c r="K136" t="str">
         <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="E80">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F80">
-        <v>65.625</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(79,1) = 65.625;</v>
+        <v>TX1(135,2) = ;</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(80,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C81">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
+      <c r="I137" t="str">
+        <f>_xlfn.CONCAT("TX1(",B137,",0",") = ",D137,";")</f>
+        <v>TX1(136,0) = ;</v>
+      </c>
+      <c r="J137" t="str">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="D81">
+        <v>TX1(136,1) = ;</v>
+      </c>
+      <c r="K137" t="str">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="E81">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F81">
-        <v>70.3125</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(80,1) = 70.3125;</v>
+        <v>TX1(136,2) = ;</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(81,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C82">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="I138" t="str">
+        <f>_xlfn.CONCAT("TX1(",B138,",0",") = ",D138,";")</f>
+        <v>TX1(137,0) = ;</v>
+      </c>
+      <c r="J138" t="str">
         <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="D82">
+        <v>TX1(137,1) = ;</v>
+      </c>
+      <c r="K138" t="str">
         <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="E82">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F82">
-        <v>75</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(81,1) = 75;</v>
+        <v>TX1(137,2) = ;</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(82,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C83">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="I139" t="str">
+        <f>_xlfn.CONCAT("TX1(",B139,",0",") = ",D139,";")</f>
+        <v>TX1(138,0) = ;</v>
+      </c>
+      <c r="J139" t="str">
         <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="D83">
+        <v>TX1(138,1) = ;</v>
+      </c>
+      <c r="K139" t="str">
         <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-      <c r="E83">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F83">
-        <v>79.6875</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(82,1) = 79.6875;</v>
+        <v>TX1(138,2) = ;</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(83,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C84">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <f t="shared" si="8"/>
+        <v>139</v>
+      </c>
+      <c r="I140" t="str">
+        <f>_xlfn.CONCAT("TX1(",B140,",0",") = ",D140,";")</f>
+        <v>TX1(139,0) = ;</v>
+      </c>
+      <c r="J140" t="str">
         <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="D84">
+        <v>TX1(139,1) = ;</v>
+      </c>
+      <c r="K140" t="str">
         <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="E84">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F84">
-        <v>84.375</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(83,1) = 84.375;</v>
+        <v>TX1(139,2) = ;</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(84,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C85">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="I141" t="str">
+        <f>_xlfn.CONCAT("TX1(",B141,",0",") = ",D141,";")</f>
+        <v>TX1(140,0) = ;</v>
+      </c>
+      <c r="J141" t="str">
         <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="D85">
+        <v>TX1(140,1) = ;</v>
+      </c>
+      <c r="K141" t="str">
         <f t="shared" si="7"/>
-        <v>84</v>
-      </c>
-      <c r="E85">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F85">
-        <v>89.0625</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(84,1) = 89.0625;</v>
+        <v>TX1(140,2) = ;</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(85,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C86">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <f t="shared" si="8"/>
+        <v>141</v>
+      </c>
+      <c r="I142" t="str">
+        <f>_xlfn.CONCAT("TX1(",B142,",0",") = ",D142,";")</f>
+        <v>TX1(141,0) = ;</v>
+      </c>
+      <c r="J142" t="str">
         <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="D86">
+        <v>TX1(141,1) = ;</v>
+      </c>
+      <c r="K142" t="str">
         <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="E86">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F86">
-        <v>93.75</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(85,1) = 93.75;</v>
+        <v>TX1(141,2) = ;</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(86,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C87">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="I143" t="str">
+        <f>_xlfn.CONCAT("TX1(",B143,",0",") = ",D143,";")</f>
+        <v>TX1(142,0) = ;</v>
+      </c>
+      <c r="J143" t="str">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="D87">
+        <v>TX1(142,1) = ;</v>
+      </c>
+      <c r="K143" t="str">
         <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="E87">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F87">
-        <v>98.4375</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(86,1) = 98.4375;</v>
+        <v>TX1(142,2) = ;</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(87,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C88">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="I144" t="str">
+        <f>_xlfn.CONCAT("TX1(",B144,",0",") = ",D144,";")</f>
+        <v>TX1(143,0) = ;</v>
+      </c>
+      <c r="J144" t="str">
         <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="D88">
+        <v>TX1(143,1) = ;</v>
+      </c>
+      <c r="K144" t="str">
         <f t="shared" si="7"/>
-        <v>87</v>
-      </c>
-      <c r="E88">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F88">
-        <v>103.125</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(87,1) = 103.125;</v>
+        <v>TX1(143,2) = ;</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(88,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C89">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="I145" t="str">
+        <f>_xlfn.CONCAT("TX1(",B145,",0",") = ",D145,";")</f>
+        <v>TX1(144,0) = ;</v>
+      </c>
+      <c r="J145" t="str">
         <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="D89">
+        <v>TX1(144,1) = ;</v>
+      </c>
+      <c r="K145" t="str">
         <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="E89">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F89">
-        <v>107.8125</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(88,1) = 107.8125;</v>
+        <v>TX1(144,2) = ;</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(89,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C90">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <f t="shared" si="8"/>
+        <v>145</v>
+      </c>
+      <c r="I146" t="str">
+        <f>_xlfn.CONCAT("TX1(",B146,",0",") = ",D146,";")</f>
+        <v>TX1(145,0) = ;</v>
+      </c>
+      <c r="J146" t="str">
         <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="D90">
+        <v>TX1(145,1) = ;</v>
+      </c>
+      <c r="K146" t="str">
         <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="E90">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F90">
-        <v>112.5</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(89,1) = 112.5;</v>
+        <v>TX1(145,2) = ;</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(90,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C91">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="I147" t="str">
+        <f>_xlfn.CONCAT("TX1(",B147,",0",") = ",D147,";")</f>
+        <v>TX1(146,0) = ;</v>
+      </c>
+      <c r="J147" t="str">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="D91">
+        <v>TX1(146,1) = ;</v>
+      </c>
+      <c r="K147" t="str">
         <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="E91">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F91">
-        <v>117.1875</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(90,1) = 117.1875;</v>
+        <v>TX1(146,2) = ;</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(91,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C92">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="I148" t="str">
+        <f>_xlfn.CONCAT("TX1(",B148,",0",") = ",D148,";")</f>
+        <v>TX1(147,0) = ;</v>
+      </c>
+      <c r="J148" t="str">
         <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="D92">
+        <v>TX1(147,1) = ;</v>
+      </c>
+      <c r="K148" t="str">
         <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="E92">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F92">
-        <v>121.875</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(91,1) = 121.875;</v>
+        <v>TX1(147,2) = ;</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(92,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C93">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <f t="shared" si="8"/>
+        <v>148</v>
+      </c>
+      <c r="I149" t="str">
+        <f>_xlfn.CONCAT("TX1(",B149,",0",") = ",D149,";")</f>
+        <v>TX1(148,0) = ;</v>
+      </c>
+      <c r="J149" t="str">
         <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="D93">
+        <v>TX1(148,1) = ;</v>
+      </c>
+      <c r="K149" t="str">
         <f t="shared" si="7"/>
-        <v>92</v>
-      </c>
-      <c r="E93">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F93">
-        <v>126.5625</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(92,1) = 126.5625;</v>
+        <v>TX1(148,2) = ;</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(93,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C94">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="I150" t="str">
+        <f>_xlfn.CONCAT("TX1(",B150,",0",") = ",D150,";")</f>
+        <v>TX1(149,0) = ;</v>
+      </c>
+      <c r="J150" t="str">
         <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="D94">
+        <v>TX1(149,1) = ;</v>
+      </c>
+      <c r="K150" t="str">
         <f t="shared" si="7"/>
-        <v>93</v>
-      </c>
-      <c r="E94">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F94">
-        <v>131.25</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(93,1) = 131.25;</v>
+        <v>TX1(149,2) = ;</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(94,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C95">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="I151" t="str">
+        <f>_xlfn.CONCAT("TX1(",B151,",0",") = ",D151,";")</f>
+        <v>TX1(150,0) = ;</v>
+      </c>
+      <c r="J151" t="str">
         <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="D95">
+        <v>TX1(150,1) = ;</v>
+      </c>
+      <c r="K151" t="str">
         <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="E95">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F95">
-        <v>135.9375</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(94,1) = 135.9375;</v>
+        <v>TX1(150,2) = ;</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(95,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C96">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="I152" t="str">
+        <f>_xlfn.CONCAT("TX1(",B152,",0",") = ",D152,";")</f>
+        <v>TX1(151,0) = ;</v>
+      </c>
+      <c r="J152" t="str">
         <f t="shared" si="6"/>
-        <v>95</v>
-      </c>
-      <c r="D96">
+        <v>TX1(151,1) = ;</v>
+      </c>
+      <c r="K152" t="str">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="E96">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F96">
-        <v>140.625</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(95,1) = 140.625;</v>
+        <v>TX1(151,2) = ;</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(96,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C97">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+      <c r="I153" t="str">
+        <f>_xlfn.CONCAT("TX1(",B153,",0",") = ",D153,";")</f>
+        <v>TX1(152,0) = ;</v>
+      </c>
+      <c r="J153" t="str">
         <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="D97">
+        <v>TX1(152,1) = ;</v>
+      </c>
+      <c r="K153" t="str">
         <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="E97">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F97">
-        <v>145.3125</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(96,1) = 145.3125;</v>
+        <v>TX1(152,2) = ;</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(97,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C98">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="I154" t="str">
+        <f>_xlfn.CONCAT("TX1(",B154,",0",") = ",D154,";")</f>
+        <v>TX1(153,0) = ;</v>
+      </c>
+      <c r="J154" t="str">
         <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="D98">
+        <v>TX1(153,1) = ;</v>
+      </c>
+      <c r="K154" t="str">
         <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="E98">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F98">
-        <v>150</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(97,1) = 150;</v>
+        <v>TX1(153,2) = ;</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(98,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C99">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="I155" t="str">
+        <f>_xlfn.CONCAT("TX1(",B155,",0",") = ",D155,";")</f>
+        <v>TX1(154,0) = ;</v>
+      </c>
+      <c r="J155" t="str">
         <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="D99">
+        <v>TX1(154,1) = ;</v>
+      </c>
+      <c r="K155" t="str">
         <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="E99">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F99">
-        <v>154.6875</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(98,1) = 154.6875;</v>
+        <v>TX1(154,2) = ;</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(99,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C100">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <f t="shared" si="8"/>
+        <v>155</v>
+      </c>
+      <c r="I156" t="str">
+        <f>_xlfn.CONCAT("TX1(",B156,",0",") = ",D156,";")</f>
+        <v>TX1(155,0) = ;</v>
+      </c>
+      <c r="J156" t="str">
         <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="D100">
+        <v>TX1(155,1) = ;</v>
+      </c>
+      <c r="K156" t="str">
         <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="E100">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F100">
-        <v>159.375</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(99,1) = 159.375;</v>
+        <v>TX1(155,2) = ;</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(100,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C101">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <f t="shared" si="8"/>
+        <v>156</v>
+      </c>
+      <c r="I157" t="str">
+        <f>_xlfn.CONCAT("TX1(",B157,",0",") = ",D157,";")</f>
+        <v>TX1(156,0) = ;</v>
+      </c>
+      <c r="J157" t="str">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="D101">
+        <v>TX1(156,1) = ;</v>
+      </c>
+      <c r="K157" t="str">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="E101">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F101">
-        <v>164.0625</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(100,1) = 164.0625;</v>
+        <v>TX1(156,2) = ;</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(101,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C102">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="I158" t="str">
+        <f>_xlfn.CONCAT("TX1(",B158,",0",") = ",D158,";")</f>
+        <v>TX1(157,0) = ;</v>
+      </c>
+      <c r="J158" t="str">
         <f t="shared" si="6"/>
-        <v>101</v>
-      </c>
-      <c r="D102">
+        <v>TX1(157,1) = ;</v>
+      </c>
+      <c r="K158" t="str">
         <f t="shared" si="7"/>
-        <v>101</v>
-      </c>
-      <c r="E102">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F102">
-        <v>168.75</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(101,1) = 168.75;</v>
+        <v>TX1(157,2) = ;</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(102,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C103">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <f t="shared" si="8"/>
+        <v>158</v>
+      </c>
+      <c r="I159" t="str">
+        <f>_xlfn.CONCAT("TX1(",B159,",0",") = ",D159,";")</f>
+        <v>TX1(158,0) = ;</v>
+      </c>
+      <c r="J159" t="str">
         <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-      <c r="D103">
+        <v>TX1(158,1) = ;</v>
+      </c>
+      <c r="K159" t="str">
         <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="E103">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F103">
-        <v>173.4375</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(102,1) = 173.4375;</v>
+        <v>TX1(158,2) = ;</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(103,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C104">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="I160" t="str">
+        <f>_xlfn.CONCAT("TX1(",B160,",0",") = ",D160,";")</f>
+        <v>TX1(159,0) = ;</v>
+      </c>
+      <c r="J160" t="str">
         <f t="shared" si="6"/>
-        <v>103</v>
-      </c>
-      <c r="D104">
+        <v>TX1(159,1) = ;</v>
+      </c>
+      <c r="K160" t="str">
         <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-      <c r="E104">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F104">
-        <v>178.125</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(103,1) = 178.125;</v>
+        <v>TX1(159,2) = ;</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(104,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C105">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="I161" t="str">
+        <f>_xlfn.CONCAT("TX1(",B161,",0",") = ",D161,";")</f>
+        <v>TX1(160,0) = ;</v>
+      </c>
+      <c r="J161" t="str">
         <f t="shared" si="6"/>
-        <v>104</v>
-      </c>
-      <c r="D105">
+        <v>TX1(160,1) = ;</v>
+      </c>
+      <c r="K161" t="str">
         <f t="shared" si="7"/>
-        <v>104</v>
-      </c>
-      <c r="E105">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F105">
-        <v>182.8125</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(104,1) = 182.8125;</v>
+        <v>TX1(160,2) = ;</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(105,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C106">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="I162" t="str">
+        <f>_xlfn.CONCAT("TX1(",B162,",0",") = ",D162,";")</f>
+        <v>TX1(161,0) = ;</v>
+      </c>
+      <c r="J162" t="str">
         <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="D106">
+        <v>TX1(161,1) = ;</v>
+      </c>
+      <c r="K162" t="str">
         <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-      <c r="E106">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F106">
-        <v>187.5</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(105,1) = 187.5;</v>
+        <v>TX1(161,2) = ;</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(106,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C107">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="I163" t="str">
+        <f>_xlfn.CONCAT("TX1(",B163,",0",") = ",D163,";")</f>
+        <v>TX1(162,0) = ;</v>
+      </c>
+      <c r="J163" t="str">
         <f t="shared" si="6"/>
-        <v>106</v>
-      </c>
-      <c r="D107">
+        <v>TX1(162,1) = ;</v>
+      </c>
+      <c r="K163" t="str">
         <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="E107">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F107">
-        <v>192.1875</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(106,1) = 192.1875;</v>
+        <v>TX1(162,2) = ;</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(107,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C108">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <f t="shared" si="8"/>
+        <v>163</v>
+      </c>
+      <c r="I164" t="str">
+        <f>_xlfn.CONCAT("TX1(",B164,",0",") = ",D164,";")</f>
+        <v>TX1(163,0) = ;</v>
+      </c>
+      <c r="J164" t="str">
         <f t="shared" si="6"/>
-        <v>107</v>
-      </c>
-      <c r="D108">
+        <v>TX1(163,1) = ;</v>
+      </c>
+      <c r="K164" t="str">
         <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="E108">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F108">
-        <v>196.875</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(107,1) = 196.875;</v>
+        <v>TX1(163,2) = ;</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(108,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C109">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="I165" t="str">
+        <f>_xlfn.CONCAT("TX1(",B165,",0",") = ",D165,";")</f>
+        <v>TX1(164,0) = ;</v>
+      </c>
+      <c r="J165" t="str">
         <f t="shared" si="6"/>
-        <v>108</v>
-      </c>
-      <c r="D109">
+        <v>TX1(164,1) = ;</v>
+      </c>
+      <c r="K165" t="str">
         <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-      <c r="E109">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F109">
-        <v>201.5625</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(108,1) = 201.5625;</v>
+        <v>TX1(164,2) = ;</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(109,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C110">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="I166" t="str">
+        <f>_xlfn.CONCAT("TX1(",B166,",0",") = ",D166,";")</f>
+        <v>TX1(165,0) = ;</v>
+      </c>
+      <c r="J166" t="str">
         <f t="shared" si="6"/>
-        <v>109</v>
-      </c>
-      <c r="D110">
+        <v>TX1(165,1) = ;</v>
+      </c>
+      <c r="K166" t="str">
         <f t="shared" si="7"/>
-        <v>109</v>
-      </c>
-      <c r="E110">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F110">
-        <v>206.25</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(109,1) = 206.25;</v>
+        <v>TX1(165,2) = ;</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(110,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C111">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="I167" t="str">
+        <f>_xlfn.CONCAT("TX1(",B167,",0",") = ",D167,";")</f>
+        <v>TX1(166,0) = ;</v>
+      </c>
+      <c r="J167" t="str">
         <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="D111">
+        <v>TX1(166,1) = ;</v>
+      </c>
+      <c r="K167" t="str">
         <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="E111">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F111">
-        <v>210.9375</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(110,1) = 210.9375;</v>
+        <v>TX1(166,2) = ;</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(111,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C112">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="I168" t="str">
+        <f>_xlfn.CONCAT("TX1(",B168,",0",") = ",D168,";")</f>
+        <v>TX1(167,0) = ;</v>
+      </c>
+      <c r="J168" t="str">
         <f t="shared" si="6"/>
-        <v>111</v>
-      </c>
-      <c r="D112">
+        <v>TX1(167,1) = ;</v>
+      </c>
+      <c r="K168" t="str">
         <f t="shared" si="7"/>
-        <v>111</v>
-      </c>
-      <c r="E112">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F112">
-        <v>215.625</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(111,1) = 215.625;</v>
+        <v>TX1(167,2) = ;</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(112,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C113">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="I169" t="str">
+        <f>_xlfn.CONCAT("TX1(",B169,",0",") = ",D169,";")</f>
+        <v>TX1(168,0) = ;</v>
+      </c>
+      <c r="J169" t="str">
         <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-      <c r="D113">
+        <v>TX1(168,1) = ;</v>
+      </c>
+      <c r="K169" t="str">
         <f t="shared" si="7"/>
-        <v>112</v>
-      </c>
-      <c r="E113">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F113">
-        <v>220.3125</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(112,1) = 220.3125;</v>
+        <v>TX1(168,2) = ;</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(113,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C114">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>169</v>
+      </c>
+      <c r="I170" t="str">
+        <f>_xlfn.CONCAT("TX1(",B170,",0",") = ",D170,";")</f>
+        <v>TX1(169,0) = ;</v>
+      </c>
+      <c r="J170" t="str">
         <f t="shared" si="6"/>
-        <v>113</v>
-      </c>
-      <c r="D114">
+        <v>TX1(169,1) = ;</v>
+      </c>
+      <c r="K170" t="str">
         <f t="shared" si="7"/>
-        <v>113</v>
-      </c>
-      <c r="E114">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F114">
-        <v>225</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(113,1) = 225;</v>
+        <v>TX1(169,2) = ;</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(114,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C115">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="I171" t="str">
+        <f>_xlfn.CONCAT("TX1(",B171,",0",") = ",D171,";")</f>
+        <v>TX1(170,0) = ;</v>
+      </c>
+      <c r="J171" t="str">
         <f t="shared" si="6"/>
-        <v>114</v>
-      </c>
-      <c r="D115">
+        <v>TX1(170,1) = ;</v>
+      </c>
+      <c r="K171" t="str">
         <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-      <c r="E115">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F115">
-        <v>229.6875</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(114,1) = 229.6875;</v>
+        <v>TX1(170,2) = ;</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(115,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C116">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="I172" t="str">
+        <f>_xlfn.CONCAT("TX1(",B172,",0",") = ",D172,";")</f>
+        <v>TX1(171,0) = ;</v>
+      </c>
+      <c r="J172" t="str">
         <f t="shared" si="6"/>
-        <v>115</v>
-      </c>
-      <c r="D116">
+        <v>TX1(171,1) = ;</v>
+      </c>
+      <c r="K172" t="str">
         <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-      <c r="E116">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F116">
-        <v>234.375</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(115,1) = 234.375;</v>
+        <v>TX1(171,2) = ;</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(116,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C117">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="I173" t="str">
+        <f>_xlfn.CONCAT("TX1(",B173,",0",") = ",D173,";")</f>
+        <v>TX1(172,0) = ;</v>
+      </c>
+      <c r="J173" t="str">
         <f t="shared" si="6"/>
-        <v>116</v>
-      </c>
-      <c r="D117">
+        <v>TX1(172,1) = ;</v>
+      </c>
+      <c r="K173" t="str">
         <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-      <c r="E117">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F117">
-        <v>239.0625</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(116,1) = 239.0625;</v>
+        <v>TX1(172,2) = ;</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(117,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C118">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+      <c r="I174" t="str">
+        <f>_xlfn.CONCAT("TX1(",B174,",0",") = ",D174,";")</f>
+        <v>TX1(173,0) = ;</v>
+      </c>
+      <c r="J174" t="str">
         <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-      <c r="D118">
+        <v>TX1(173,1) = ;</v>
+      </c>
+      <c r="K174" t="str">
         <f t="shared" si="7"/>
-        <v>117</v>
-      </c>
-      <c r="E118">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F118">
-        <v>243.75</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(117,1) = 243.75;</v>
+        <v>TX1(173,2) = ;</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(118,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C119">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <f t="shared" si="8"/>
+        <v>174</v>
+      </c>
+      <c r="I175" t="str">
+        <f>_xlfn.CONCAT("TX1(",B175,",0",") = ",D175,";")</f>
+        <v>TX1(174,0) = ;</v>
+      </c>
+      <c r="J175" t="str">
         <f t="shared" si="6"/>
-        <v>118</v>
-      </c>
-      <c r="D119">
+        <v>TX1(174,1) = ;</v>
+      </c>
+      <c r="K175" t="str">
         <f t="shared" si="7"/>
-        <v>118</v>
-      </c>
-      <c r="E119">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F119">
-        <v>248.4375</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(118,1) = 248.4375;</v>
+        <v>TX1(174,2) = ;</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(119,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C120">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+      <c r="I176" t="str">
+        <f>_xlfn.CONCAT("TX1(",B176,",0",") = ",D176,";")</f>
+        <v>TX1(175,0) = ;</v>
+      </c>
+      <c r="J176" t="str">
         <f t="shared" si="6"/>
-        <v>119</v>
-      </c>
-      <c r="D120">
+        <v>TX1(175,1) = ;</v>
+      </c>
+      <c r="K176" t="str">
         <f t="shared" si="7"/>
-        <v>119</v>
-      </c>
-      <c r="E120">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F120">
-        <v>253.125</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(119,1) = 253.125;</v>
+        <v>TX1(175,2) = ;</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(120,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C121">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+      <c r="I177" t="str">
+        <f>_xlfn.CONCAT("TX1(",B177,",0",") = ",D177,";")</f>
+        <v>TX1(176,0) = ;</v>
+      </c>
+      <c r="J177" t="str">
         <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="D121">
+        <v>TX1(176,1) = ;</v>
+      </c>
+      <c r="K177" t="str">
         <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="E121">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F121">
-        <v>257.8125</v>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(120,1) = 257.8125;</v>
+        <v>TX1(176,2) = ;</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(121,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C122">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+      <c r="I178" t="str">
+        <f>_xlfn.CONCAT("TX1(",B178,",0",") = ",D178,";")</f>
+        <v>TX1(177,0) = ;</v>
+      </c>
+      <c r="J178" t="str">
         <f t="shared" si="6"/>
-        <v>121</v>
-      </c>
-      <c r="D122">
+        <v>TX1(177,1) = ;</v>
+      </c>
+      <c r="K178" t="str">
         <f t="shared" si="7"/>
-        <v>121</v>
-      </c>
-      <c r="E122">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F122">
-        <v>262.5</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(121,1) = 262.5;</v>
+        <v>TX1(177,2) = ;</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(122,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C123">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <f t="shared" si="8"/>
+        <v>178</v>
+      </c>
+      <c r="I179" t="str">
+        <f>_xlfn.CONCAT("TX1(",B179,",0",") = ",D179,";")</f>
+        <v>TX1(178,0) = ;</v>
+      </c>
+      <c r="J179" t="str">
         <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-      <c r="D123">
+        <v>TX1(178,1) = ;</v>
+      </c>
+      <c r="K179" t="str">
         <f t="shared" si="7"/>
-        <v>122</v>
-      </c>
-      <c r="E123">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F123">
-        <v>267.1875</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(122,1) = 267.1875;</v>
+        <v>TX1(178,2) = ;</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(123,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C124">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <f t="shared" si="8"/>
+        <v>179</v>
+      </c>
+      <c r="I180" t="str">
+        <f>_xlfn.CONCAT("TX1(",B180,",0",") = ",D180,";")</f>
+        <v>TX1(179,0) = ;</v>
+      </c>
+      <c r="J180" t="str">
         <f t="shared" si="6"/>
-        <v>123</v>
-      </c>
-      <c r="D124">
+        <v>TX1(179,1) = ;</v>
+      </c>
+      <c r="K180" t="str">
         <f t="shared" si="7"/>
-        <v>123</v>
-      </c>
-      <c r="E124">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F124">
-        <v>271.875</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(123,1) = 271.875;</v>
+        <v>TX1(179,2) = ;</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(124,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C125">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="I181" t="str">
+        <f>_xlfn.CONCAT("TX1(",B181,",0",") = ",D181,";")</f>
+        <v>TX1(180,0) = ;</v>
+      </c>
+      <c r="J181" t="str">
         <f t="shared" si="6"/>
-        <v>124</v>
-      </c>
-      <c r="D125">
+        <v>TX1(180,1) = ;</v>
+      </c>
+      <c r="K181" t="str">
         <f t="shared" si="7"/>
-        <v>124</v>
-      </c>
-      <c r="E125">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F125">
-        <v>276.5625</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(124,1) = 276.5625;</v>
+        <v>TX1(180,2) = ;</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(125,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C126">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="I182" t="str">
+        <f>_xlfn.CONCAT("TX1(",B182,",0",") = ",D182,";")</f>
+        <v>TX1(181,0) = ;</v>
+      </c>
+      <c r="J182" t="str">
         <f t="shared" si="6"/>
-        <v>125</v>
-      </c>
-      <c r="D126">
+        <v>TX1(181,1) = ;</v>
+      </c>
+      <c r="K182" t="str">
         <f t="shared" si="7"/>
-        <v>125</v>
-      </c>
-      <c r="E126">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F126">
-        <v>281.25</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(125,1) = 281.25;</v>
+        <v>TX1(181,2) = ;</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(126,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C127">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <f t="shared" si="8"/>
+        <v>182</v>
+      </c>
+      <c r="I183" t="str">
+        <f>_xlfn.CONCAT("TX1(",B183,",0",") = ",D183,";")</f>
+        <v>TX1(182,0) = ;</v>
+      </c>
+      <c r="J183" t="str">
         <f t="shared" si="6"/>
-        <v>126</v>
-      </c>
-      <c r="D127">
+        <v>TX1(182,1) = ;</v>
+      </c>
+      <c r="K183" t="str">
         <f t="shared" si="7"/>
-        <v>126</v>
-      </c>
-      <c r="E127">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F127">
-        <v>285.9375</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(126,1) = 285.9375;</v>
+        <v>TX1(182,2) = ;</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(127,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C128">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <f t="shared" si="8"/>
+        <v>183</v>
+      </c>
+      <c r="I184" t="str">
+        <f>_xlfn.CONCAT("TX1(",B184,",0",") = ",D184,";")</f>
+        <v>TX1(183,0) = ;</v>
+      </c>
+      <c r="J184" t="str">
         <f t="shared" si="6"/>
-        <v>127</v>
-      </c>
-      <c r="D128">
+        <v>TX1(183,1) = ;</v>
+      </c>
+      <c r="K184" t="str">
         <f t="shared" si="7"/>
-        <v>127</v>
-      </c>
-      <c r="E128">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F128">
-        <v>290.625</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(127,1) = 290.625;</v>
+        <v>TX1(183,2) = ;</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" t="str">
-        <f t="shared" si="4"/>
-        <v>TX1(128,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C129">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="I185" t="str">
+        <f>_xlfn.CONCAT("TX1(",B185,",0",") = ",D185,";")</f>
+        <v>TX1(184,0) = ;</v>
+      </c>
+      <c r="J185" t="str">
         <f t="shared" si="6"/>
-        <v>128</v>
-      </c>
-      <c r="D129">
+        <v>TX1(184,1) = ;</v>
+      </c>
+      <c r="K185" t="str">
         <f t="shared" si="7"/>
-        <v>128</v>
-      </c>
-      <c r="E129">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F129">
-        <v>295.3125</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="5"/>
-        <v>TX1(128,1) = 295.3125;</v>
+        <v>TX1(184,2) = ;</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="8">_xlfn.CONCAT("TX1(",C130,",0",") = ",E130,";")</f>
-        <v>TX1(129,0) = 0.432499999999999;</v>
-      </c>
-      <c r="C130">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="I186" t="str">
+        <f>_xlfn.CONCAT("TX1(",B186,",0",") = ",D186,";")</f>
+        <v>TX1(185,0) = ;</v>
+      </c>
+      <c r="J186" t="str">
         <f t="shared" si="6"/>
-        <v>129</v>
-      </c>
-      <c r="D130">
+        <v>TX1(185,1) = ;</v>
+      </c>
+      <c r="K186" t="str">
         <f t="shared" si="7"/>
-        <v>129</v>
-      </c>
-      <c r="E130">
-        <v>0.432499999999999</v>
-      </c>
-      <c r="F130">
-        <v>300</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" ref="H130:H193" si="9">_xlfn.CONCAT("TX1(",C130,",1",") = ",F130,";")</f>
-        <v>TX1(129,1) = 300;</v>
+        <v>TX1(185,2) = ;</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" t="str">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187">
         <f t="shared" si="8"/>
-        <v>TX1(130,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C131">
-        <f t="shared" ref="C131:C194" si="10">C130+1</f>
-        <v>130</v>
-      </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D194" si="11">D130+1</f>
-        <v>130</v>
-      </c>
-      <c r="E131">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(130,1) = 0;</v>
+        <v>186</v>
+      </c>
+      <c r="I187" t="str">
+        <f>_xlfn.CONCAT("TX1(",B187,",0",") = ",D187,";")</f>
+        <v>TX1(186,0) = ;</v>
+      </c>
+      <c r="J187" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(186,1) = ;</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(186,2) = ;</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" t="str">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188">
         <f t="shared" si="8"/>
-        <v>TX1(131,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C132">
+        <v>187</v>
+      </c>
+      <c r="I188" t="str">
+        <f>_xlfn.CONCAT("TX1(",B188,",0",") = ",D188,";")</f>
+        <v>TX1(187,0) = ;</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(187,1) = ;</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(187,2) = ;</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="I189" t="str">
+        <f>_xlfn.CONCAT("TX1(",B189,",0",") = ",D189,";")</f>
+        <v>TX1(188,0) = ;</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(188,1) = ;</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(188,2) = ;</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <f t="shared" si="8"/>
+        <v>189</v>
+      </c>
+      <c r="I190" t="str">
+        <f>_xlfn.CONCAT("TX1(",B190,",0",") = ",D190,";")</f>
+        <v>TX1(189,0) = ;</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(189,1) = ;</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(189,2) = ;</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="I191" t="str">
+        <f>_xlfn.CONCAT("TX1(",B191,",0",") = ",D191,";")</f>
+        <v>TX1(190,0) = ;</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(190,1) = ;</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(190,2) = ;</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="I192" t="str">
+        <f>_xlfn.CONCAT("TX1(",B192,",0",") = ",D192,";")</f>
+        <v>TX1(191,0) = ;</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(191,1) = ;</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(191,2) = ;</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="I193" t="str">
+        <f>_xlfn.CONCAT("TX1(",B193,",0",") = ",D193,";")</f>
+        <v>TX1(192,0) = ;</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" si="6"/>
+        <v>TX1(192,1) = ;</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" si="7"/>
+        <v>TX1(192,2) = ;</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="I194" t="str">
+        <f>_xlfn.CONCAT("TX1(",B194,",0",") = ",D194,";")</f>
+        <v>TX1(193,0) = ;</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" ref="J194:J195" si="9">_xlfn.CONCAT("TX1(",B194,",1",") = ",E194,";")</f>
+        <v>TX1(193,1) = ;</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" ref="K194:K195" si="10">_xlfn.CONCAT("TX1(",B194,",2",") = ",F194,";")</f>
+        <v>TX1(193,2) = ;</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <f>B194+1</f>
+        <v>194</v>
+      </c>
+      <c r="I195" t="str">
+        <f>_xlfn.CONCAT("TX1(",B195,",0",") = ",D195,";")</f>
+        <v>TX1(194,0) = ;</v>
+      </c>
+      <c r="J195" t="str">
+        <f>_xlfn.CONCAT("TX1(",B195,",1",") = ",E195,";")</f>
+        <v>TX1(194,1) = ;</v>
+      </c>
+      <c r="K195" t="str">
         <f t="shared" si="10"/>
-        <v>131</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="11"/>
-        <v>131</v>
-      </c>
-      <c r="E132">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F132">
-        <v>4.6875</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(131,1) = 4.6875;</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(132,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C133">
-        <f t="shared" si="10"/>
-        <v>132</v>
-      </c>
-      <c r="D133">
-        <f t="shared" si="11"/>
-        <v>132</v>
-      </c>
-      <c r="E133">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F133">
-        <v>9.375</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(132,1) = 9.375;</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(133,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C134">
-        <f t="shared" si="10"/>
-        <v>133</v>
-      </c>
-      <c r="D134">
-        <f t="shared" si="11"/>
-        <v>133</v>
-      </c>
-      <c r="E134">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F134">
-        <v>14.0625</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(133,1) = 14.0625;</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(134,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C135">
-        <f t="shared" si="10"/>
-        <v>134</v>
-      </c>
-      <c r="D135">
-        <f t="shared" si="11"/>
-        <v>134</v>
-      </c>
-      <c r="E135">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F135">
-        <v>18.75</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(134,1) = 18.75;</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(135,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C136">
-        <f t="shared" si="10"/>
-        <v>135</v>
-      </c>
-      <c r="D136">
-        <f t="shared" si="11"/>
-        <v>135</v>
-      </c>
-      <c r="E136">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F136">
-        <v>23.4375</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(135,1) = 23.4375;</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(136,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C137">
-        <f t="shared" si="10"/>
-        <v>136</v>
-      </c>
-      <c r="D137">
-        <f t="shared" si="11"/>
-        <v>136</v>
-      </c>
-      <c r="E137">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F137">
-        <v>28.125</v>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(136,1) = 28.125;</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(137,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C138">
-        <f t="shared" si="10"/>
-        <v>137</v>
-      </c>
-      <c r="D138">
-        <f t="shared" si="11"/>
-        <v>137</v>
-      </c>
-      <c r="E138">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F138">
-        <v>32.8125</v>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(137,1) = 32.8125;</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(138,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C139">
-        <f t="shared" si="10"/>
-        <v>138</v>
-      </c>
-      <c r="D139">
-        <f t="shared" si="11"/>
-        <v>138</v>
-      </c>
-      <c r="E139">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F139">
-        <v>37.5</v>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(138,1) = 37.5;</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(139,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C140">
-        <f t="shared" si="10"/>
-        <v>139</v>
-      </c>
-      <c r="D140">
-        <f t="shared" si="11"/>
-        <v>139</v>
-      </c>
-      <c r="E140">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F140">
-        <v>42.1875</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(139,1) = 42.1875;</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(140,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C141">
-        <f t="shared" si="10"/>
-        <v>140</v>
-      </c>
-      <c r="D141">
-        <f t="shared" si="11"/>
-        <v>140</v>
-      </c>
-      <c r="E141">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F141">
-        <v>46.875</v>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(140,1) = 46.875;</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(141,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C142">
-        <f t="shared" si="10"/>
-        <v>141</v>
-      </c>
-      <c r="D142">
-        <f t="shared" si="11"/>
-        <v>141</v>
-      </c>
-      <c r="E142">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F142">
-        <v>51.5625</v>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(141,1) = 51.5625;</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(142,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C143">
-        <f t="shared" si="10"/>
-        <v>142</v>
-      </c>
-      <c r="D143">
-        <f t="shared" si="11"/>
-        <v>142</v>
-      </c>
-      <c r="E143">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F143">
-        <v>56.25</v>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(142,1) = 56.25;</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(143,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C144">
-        <f t="shared" si="10"/>
-        <v>143</v>
-      </c>
-      <c r="D144">
-        <f t="shared" si="11"/>
-        <v>143</v>
-      </c>
-      <c r="E144">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F144">
-        <v>60.9375</v>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(143,1) = 60.9375;</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(144,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C145">
-        <f t="shared" si="10"/>
-        <v>144</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="11"/>
-        <v>144</v>
-      </c>
-      <c r="E145">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F145">
-        <v>65.625</v>
-      </c>
-      <c r="H145" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(144,1) = 65.625;</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(145,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C146">
-        <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-      <c r="D146">
-        <f t="shared" si="11"/>
-        <v>145</v>
-      </c>
-      <c r="E146">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F146">
-        <v>70.3125</v>
-      </c>
-      <c r="H146" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(145,1) = 70.3125;</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(146,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C147">
-        <f t="shared" si="10"/>
-        <v>146</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="11"/>
-        <v>146</v>
-      </c>
-      <c r="E147">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F147">
-        <v>75</v>
-      </c>
-      <c r="H147" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(146,1) = 75;</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(147,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C148">
-        <f t="shared" si="10"/>
-        <v>147</v>
-      </c>
-      <c r="D148">
-        <f t="shared" si="11"/>
-        <v>147</v>
-      </c>
-      <c r="E148">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F148">
-        <v>79.6875</v>
-      </c>
-      <c r="H148" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(147,1) = 79.6875;</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(148,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C149">
-        <f t="shared" si="10"/>
-        <v>148</v>
-      </c>
-      <c r="D149">
-        <f t="shared" si="11"/>
-        <v>148</v>
-      </c>
-      <c r="E149">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F149">
-        <v>84.375</v>
-      </c>
-      <c r="H149" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(148,1) = 84.375;</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(149,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C150">
-        <f t="shared" si="10"/>
-        <v>149</v>
-      </c>
-      <c r="D150">
-        <f t="shared" si="11"/>
-        <v>149</v>
-      </c>
-      <c r="E150">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F150">
-        <v>89.0625</v>
-      </c>
-      <c r="H150" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(149,1) = 89.0625;</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(150,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C151">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="D151">
-        <f t="shared" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="E151">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F151">
-        <v>93.75</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(150,1) = 93.75;</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(151,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C152">
-        <f t="shared" si="10"/>
-        <v>151</v>
-      </c>
-      <c r="D152">
-        <f t="shared" si="11"/>
-        <v>151</v>
-      </c>
-      <c r="E152">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F152">
-        <v>98.4375</v>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(151,1) = 98.4375;</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(152,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C153">
-        <f t="shared" si="10"/>
-        <v>152</v>
-      </c>
-      <c r="D153">
-        <f t="shared" si="11"/>
-        <v>152</v>
-      </c>
-      <c r="E153">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F153">
-        <v>103.125</v>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(152,1) = 103.125;</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(153,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C154">
-        <f t="shared" si="10"/>
-        <v>153</v>
-      </c>
-      <c r="D154">
-        <f t="shared" si="11"/>
-        <v>153</v>
-      </c>
-      <c r="E154">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F154">
-        <v>107.8125</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(153,1) = 107.8125;</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(154,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C155">
-        <f t="shared" si="10"/>
-        <v>154</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="11"/>
-        <v>154</v>
-      </c>
-      <c r="E155">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F155">
-        <v>112.5</v>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(154,1) = 112.5;</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(155,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C156">
-        <f t="shared" si="10"/>
-        <v>155</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="11"/>
-        <v>155</v>
-      </c>
-      <c r="E156">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F156">
-        <v>117.1875</v>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(155,1) = 117.1875;</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(156,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C157">
-        <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="11"/>
-        <v>156</v>
-      </c>
-      <c r="E157">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F157">
-        <v>121.875</v>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(156,1) = 121.875;</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(157,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C158">
-        <f t="shared" si="10"/>
-        <v>157</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="11"/>
-        <v>157</v>
-      </c>
-      <c r="E158">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F158">
-        <v>126.5625</v>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(157,1) = 126.5625;</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(158,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C159">
-        <f t="shared" si="10"/>
-        <v>158</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="11"/>
-        <v>158</v>
-      </c>
-      <c r="E159">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F159">
-        <v>131.25</v>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(158,1) = 131.25;</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(159,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C160">
-        <f t="shared" si="10"/>
-        <v>159</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="11"/>
-        <v>159</v>
-      </c>
-      <c r="E160">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F160">
-        <v>135.9375</v>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(159,1) = 135.9375;</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(160,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C161">
-        <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="11"/>
-        <v>160</v>
-      </c>
-      <c r="E161">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F161">
-        <v>140.625</v>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(160,1) = 140.625;</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(161,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C162">
-        <f t="shared" si="10"/>
-        <v>161</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="11"/>
-        <v>161</v>
-      </c>
-      <c r="E162">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F162">
-        <v>145.3125</v>
-      </c>
-      <c r="H162" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(161,1) = 145.3125;</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(162,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C163">
-        <f t="shared" si="10"/>
-        <v>162</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="11"/>
-        <v>162</v>
-      </c>
-      <c r="E163">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F163">
-        <v>150</v>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(162,1) = 150;</v>
-      </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(163,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C164">
-        <f t="shared" si="10"/>
-        <v>163</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="11"/>
-        <v>163</v>
-      </c>
-      <c r="E164">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F164">
-        <v>154.6875</v>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(163,1) = 154.6875;</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(164,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C165">
-        <f t="shared" si="10"/>
-        <v>164</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="11"/>
-        <v>164</v>
-      </c>
-      <c r="E165">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F165">
-        <v>159.375</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(164,1) = 159.375;</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(165,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C166">
-        <f t="shared" si="10"/>
-        <v>165</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="11"/>
-        <v>165</v>
-      </c>
-      <c r="E166">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F166">
-        <v>164.0625</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(165,1) = 164.0625;</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(166,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C167">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="11"/>
-        <v>166</v>
-      </c>
-      <c r="E167">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F167">
-        <v>168.75</v>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(166,1) = 168.75;</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(167,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C168">
-        <f t="shared" si="10"/>
-        <v>167</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="11"/>
-        <v>167</v>
-      </c>
-      <c r="E168">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F168">
-        <v>173.4375</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(167,1) = 173.4375;</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(168,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C169">
-        <f t="shared" si="10"/>
-        <v>168</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="11"/>
-        <v>168</v>
-      </c>
-      <c r="E169">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F169">
-        <v>178.125</v>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(168,1) = 178.125;</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(169,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C170">
-        <f t="shared" si="10"/>
-        <v>169</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="11"/>
-        <v>169</v>
-      </c>
-      <c r="E170">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F170">
-        <v>182.8125</v>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(169,1) = 182.8125;</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(170,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C171">
-        <f t="shared" si="10"/>
-        <v>170</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="E171">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F171">
-        <v>187.5</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(170,1) = 187.5;</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(171,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C172">
-        <f t="shared" si="10"/>
-        <v>171</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="11"/>
-        <v>171</v>
-      </c>
-      <c r="E172">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F172">
-        <v>192.1875</v>
-      </c>
-      <c r="H172" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(171,1) = 192.1875;</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(172,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C173">
-        <f t="shared" si="10"/>
-        <v>172</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="11"/>
-        <v>172</v>
-      </c>
-      <c r="E173">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F173">
-        <v>196.875</v>
-      </c>
-      <c r="H173" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(172,1) = 196.875;</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(173,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C174">
-        <f t="shared" si="10"/>
-        <v>173</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="11"/>
-        <v>173</v>
-      </c>
-      <c r="E174">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F174">
-        <v>201.5625</v>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(173,1) = 201.5625;</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(174,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C175">
-        <f t="shared" si="10"/>
-        <v>174</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="11"/>
-        <v>174</v>
-      </c>
-      <c r="E175">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F175">
-        <v>206.25</v>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(174,1) = 206.25;</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(175,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C176">
-        <f t="shared" si="10"/>
-        <v>175</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="11"/>
-        <v>175</v>
-      </c>
-      <c r="E176">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F176">
-        <v>210.9375</v>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(175,1) = 210.9375;</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(176,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C177">
-        <f t="shared" si="10"/>
-        <v>176</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="11"/>
-        <v>176</v>
-      </c>
-      <c r="E177">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F177">
-        <v>215.625</v>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(176,1) = 215.625;</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(177,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C178">
-        <f t="shared" si="10"/>
-        <v>177</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="11"/>
-        <v>177</v>
-      </c>
-      <c r="E178">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F178">
-        <v>220.3125</v>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(177,1) = 220.3125;</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(178,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C179">
-        <f t="shared" si="10"/>
-        <v>178</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="11"/>
-        <v>178</v>
-      </c>
-      <c r="E179">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F179">
-        <v>225</v>
-      </c>
-      <c r="H179" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(178,1) = 225;</v>
-      </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(179,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C180">
-        <f t="shared" si="10"/>
-        <v>179</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="11"/>
-        <v>179</v>
-      </c>
-      <c r="E180">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F180">
-        <v>229.6875</v>
-      </c>
-      <c r="H180" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(179,1) = 229.6875;</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(180,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C181">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="E181">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F181">
-        <v>234.375</v>
-      </c>
-      <c r="H181" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(180,1) = 234.375;</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(181,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C182">
-        <f t="shared" si="10"/>
-        <v>181</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="11"/>
-        <v>181</v>
-      </c>
-      <c r="E182">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F182">
-        <v>239.0625</v>
-      </c>
-      <c r="H182" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(181,1) = 239.0625;</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(182,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C183">
-        <f t="shared" si="10"/>
-        <v>182</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="11"/>
-        <v>182</v>
-      </c>
-      <c r="E183">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F183">
-        <v>243.75</v>
-      </c>
-      <c r="H183" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(182,1) = 243.75;</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(183,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C184">
-        <f t="shared" si="10"/>
-        <v>183</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="11"/>
-        <v>183</v>
-      </c>
-      <c r="E184">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F184">
-        <v>248.4375</v>
-      </c>
-      <c r="H184" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(183,1) = 248.4375;</v>
-      </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(184,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C185">
-        <f t="shared" si="10"/>
-        <v>184</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="11"/>
-        <v>184</v>
-      </c>
-      <c r="E185">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F185">
-        <v>253.125</v>
-      </c>
-      <c r="H185" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(184,1) = 253.125;</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(185,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C186">
-        <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="11"/>
-        <v>185</v>
-      </c>
-      <c r="E186">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F186">
-        <v>257.8125</v>
-      </c>
-      <c r="H186" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(185,1) = 257.8125;</v>
-      </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(186,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C187">
-        <f t="shared" si="10"/>
-        <v>186</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="11"/>
-        <v>186</v>
-      </c>
-      <c r="E187">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F187">
-        <v>262.5</v>
-      </c>
-      <c r="H187" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(186,1) = 262.5;</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(187,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C188">
-        <f t="shared" si="10"/>
-        <v>187</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="11"/>
-        <v>187</v>
-      </c>
-      <c r="E188">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F188">
-        <v>267.1875</v>
-      </c>
-      <c r="H188" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(187,1) = 267.1875;</v>
-      </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(188,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C189">
-        <f t="shared" si="10"/>
-        <v>188</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="11"/>
-        <v>188</v>
-      </c>
-      <c r="E189">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F189">
-        <v>271.875</v>
-      </c>
-      <c r="H189" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(188,1) = 271.875;</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(189,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="10"/>
-        <v>189</v>
-      </c>
-      <c r="D190">
-        <f t="shared" si="11"/>
-        <v>189</v>
-      </c>
-      <c r="E190">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F190">
-        <v>276.5625</v>
-      </c>
-      <c r="H190" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(189,1) = 276.5625;</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(190,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C191">
-        <f t="shared" si="10"/>
-        <v>190</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="11"/>
-        <v>190</v>
-      </c>
-      <c r="E191">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F191">
-        <v>281.25</v>
-      </c>
-      <c r="H191" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(190,1) = 281.25;</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(191,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C192">
-        <f t="shared" si="10"/>
-        <v>191</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="11"/>
-        <v>191</v>
-      </c>
-      <c r="E192">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F192">
-        <v>285.9375</v>
-      </c>
-      <c r="H192" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(191,1) = 285.9375;</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" t="str">
-        <f t="shared" si="8"/>
-        <v>TX1(192,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C193">
-        <f t="shared" si="10"/>
-        <v>192</v>
-      </c>
-      <c r="D193">
-        <f t="shared" si="11"/>
-        <v>192</v>
-      </c>
-      <c r="E193">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F193">
-        <v>290.625</v>
-      </c>
-      <c r="H193" t="str">
-        <f t="shared" si="9"/>
-        <v>TX1(192,1) = 290.625;</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" t="str">
-        <f t="shared" ref="B194" si="12">_xlfn.CONCAT("TX1(",C194,",0",") = ",E194,";")</f>
-        <v>TX1(193,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C194">
-        <f t="shared" si="10"/>
-        <v>193</v>
-      </c>
-      <c r="D194">
-        <f t="shared" si="11"/>
-        <v>193</v>
-      </c>
-      <c r="E194">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F194">
-        <v>295.3125</v>
-      </c>
-      <c r="H194" t="str">
-        <f t="shared" ref="H194:H195" si="13">_xlfn.CONCAT("TX1(",C194,",1",") = ",F194,";")</f>
-        <v>TX1(193,1) = 295.3125;</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" t="str">
-        <f>_xlfn.CONCAT("TX1(",C195,",0",") = ",E195,";")</f>
-        <v>TX1(194,0) = 0.864999999999999;</v>
-      </c>
-      <c r="C195">
-        <f>C194+1</f>
-        <v>194</v>
-      </c>
-      <c r="D195">
-        <f>D194+1</f>
-        <v>194</v>
-      </c>
-      <c r="E195">
-        <v>0.86499999999999899</v>
-      </c>
-      <c r="F195">
-        <v>300</v>
-      </c>
-      <c r="H195" t="str">
-        <f t="shared" si="13"/>
-        <v>TX1(194,1) = 300;</v>
+        <v>TX1(194,2) = ;</v>
       </c>
     </row>
   </sheetData>
